--- a/data/analysis/social_media_analytics/pivot_tables/governance-size/museum_activity_groups__var2-governance-size.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/governance-size/museum_activity_groups__var2-governance-size.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="36">
   <si>
     <t>msg_count_twitter</t>
+  </si>
+  <si>
+    <t>msg_count_twitter_engage</t>
   </si>
   <si>
     <t>msg_count_facebook</t>
@@ -476,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB56"/>
+  <dimension ref="A1:AO56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:41">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -514,215 +517,302 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
+      <c r="AC1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:41">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AO2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>8415</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2805</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2429.3</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2095</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4190</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>4207.5</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4225</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
-      <c r="L4">
-        <v>4207.5</v>
-      </c>
       <c r="M4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>66.7</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1</v>
+        <v>-1.7</v>
       </c>
       <c r="P4">
-        <v>4826</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1608.7</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1394.1</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1181</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>2362</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>2413</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>2464</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>3</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>-1.7</v>
+      </c>
+      <c r="AC4">
+        <v>4826</v>
+      </c>
+      <c r="AD4">
+        <v>1608.7</v>
+      </c>
+      <c r="AE4">
+        <v>1394.1</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>1181</v>
+      </c>
+      <c r="AH4">
+        <v>2362</v>
+      </c>
+      <c r="AI4">
         <v>2413</v>
       </c>
-      <c r="Z4">
+      <c r="AJ4">
+        <v>2464</v>
+      </c>
+      <c r="AK4">
+        <v>3</v>
+      </c>
+      <c r="AL4">
+        <v>2413</v>
+      </c>
+      <c r="AM4">
         <v>2</v>
       </c>
-      <c r="AA4">
+      <c r="AN4">
         <v>66.7</v>
       </c>
-      <c r="AB4">
+      <c r="AO4">
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:41">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>2027</v>
+        <v>1171</v>
       </c>
       <c r="D5">
-        <v>2027</v>
+        <v>1171</v>
       </c>
       <c r="F5">
-        <v>2027</v>
+        <v>1171</v>
       </c>
       <c r="G5">
-        <v>2027</v>
+        <v>1171</v>
       </c>
       <c r="H5">
-        <v>2027</v>
+        <v>1171</v>
       </c>
       <c r="I5">
-        <v>2027</v>
+        <v>1171</v>
       </c>
       <c r="J5">
-        <v>2027</v>
+        <v>1171</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>2027</v>
+        <v>1171</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -731,34 +821,34 @@
         <v>100</v>
       </c>
       <c r="O5">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="P5">
-        <v>1060</v>
+        <v>847</v>
       </c>
       <c r="Q5">
-        <v>1060</v>
+        <v>847</v>
       </c>
       <c r="S5">
-        <v>1060</v>
+        <v>847</v>
       </c>
       <c r="T5">
-        <v>1060</v>
+        <v>847</v>
       </c>
       <c r="U5">
-        <v>1060</v>
+        <v>847</v>
       </c>
       <c r="V5">
-        <v>1060</v>
+        <v>847</v>
       </c>
       <c r="W5">
-        <v>1060</v>
+        <v>847</v>
       </c>
       <c r="X5">
         <v>1</v>
       </c>
       <c r="Y5">
-        <v>1060</v>
+        <v>847</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -767,145 +857,220 @@
         <v>100</v>
       </c>
       <c r="AB5">
+        <v>1.3</v>
+      </c>
+      <c r="AC5">
+        <v>1060</v>
+      </c>
+      <c r="AD5">
+        <v>1060</v>
+      </c>
+      <c r="AF5">
+        <v>1060</v>
+      </c>
+      <c r="AG5">
+        <v>1060</v>
+      </c>
+      <c r="AH5">
+        <v>1060</v>
+      </c>
+      <c r="AI5">
+        <v>1060</v>
+      </c>
+      <c r="AJ5">
+        <v>1060</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1060</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>100</v>
+      </c>
+      <c r="AO5">
         <v>1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:41">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>412034</v>
+        <v>299002</v>
       </c>
       <c r="D6">
-        <v>2527.8</v>
+        <v>1834.4</v>
       </c>
       <c r="E6">
-        <v>3692.4</v>
+        <v>2641.3</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>438.5</v>
+        <v>344</v>
       </c>
       <c r="H6">
-        <v>1508</v>
+        <v>1085</v>
       </c>
       <c r="I6">
-        <v>3069</v>
+        <v>2309.5</v>
       </c>
       <c r="J6">
-        <v>24665</v>
+        <v>19900</v>
       </c>
       <c r="K6">
         <v>163</v>
       </c>
       <c r="L6">
-        <v>3007.5</v>
+        <v>2214.8</v>
       </c>
       <c r="M6">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N6">
-        <v>84</v>
+        <v>82.8</v>
       </c>
       <c r="O6">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="P6">
-        <v>87287</v>
+        <v>94228</v>
       </c>
       <c r="Q6">
-        <v>535.5</v>
+        <v>578.1</v>
       </c>
       <c r="R6">
-        <v>583.8</v>
+        <v>1274.7</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="U6">
-        <v>461</v>
+        <v>238</v>
       </c>
       <c r="V6">
-        <v>946</v>
+        <v>593</v>
       </c>
       <c r="W6">
-        <v>3210</v>
+        <v>12827</v>
       </c>
       <c r="X6">
         <v>163</v>
       </c>
       <c r="Y6">
+        <v>698</v>
+      </c>
+      <c r="Z6">
+        <v>135</v>
+      </c>
+      <c r="AA6">
+        <v>82.8</v>
+      </c>
+      <c r="AB6">
+        <v>0.8</v>
+      </c>
+      <c r="AC6">
+        <v>87287</v>
+      </c>
+      <c r="AD6">
+        <v>535.5</v>
+      </c>
+      <c r="AE6">
+        <v>583.8</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>461</v>
+      </c>
+      <c r="AI6">
+        <v>946</v>
+      </c>
+      <c r="AJ6">
+        <v>3210</v>
+      </c>
+      <c r="AK6">
+        <v>163</v>
+      </c>
+      <c r="AL6">
         <v>890.7</v>
       </c>
-      <c r="Z6">
+      <c r="AM6">
         <v>98</v>
       </c>
-      <c r="AA6">
+      <c r="AN6">
         <v>60.1</v>
       </c>
-      <c r="AB6">
+      <c r="AO6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:41">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>805808</v>
+        <v>263564</v>
       </c>
       <c r="D7">
-        <v>2295.7</v>
+        <v>750.9</v>
       </c>
       <c r="E7">
-        <v>5520.5</v>
+        <v>1304</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>638</v>
+        <v>203</v>
       </c>
       <c r="I7">
-        <v>1963.5</v>
+        <v>1009.5</v>
       </c>
       <c r="J7">
-        <v>68140</v>
+        <v>14888</v>
       </c>
       <c r="K7">
         <v>351</v>
       </c>
       <c r="L7">
-        <v>3029.4</v>
+        <v>1171.4</v>
       </c>
       <c r="M7">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="N7">
-        <v>75.8</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="O7">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="P7">
-        <v>197933</v>
+        <v>61830</v>
       </c>
       <c r="Q7">
-        <v>563.9</v>
+        <v>176.2</v>
       </c>
       <c r="R7">
-        <v>1300.8</v>
+        <v>642.8</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -914,43 +1079,82 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V7">
-        <v>676.5</v>
+        <v>141.5</v>
       </c>
       <c r="W7">
-        <v>13336</v>
+        <v>10421</v>
       </c>
       <c r="X7">
         <v>351</v>
       </c>
       <c r="Y7">
+        <v>271.2</v>
+      </c>
+      <c r="Z7">
+        <v>228</v>
+      </c>
+      <c r="AA7">
+        <v>65</v>
+      </c>
+      <c r="AB7">
+        <v>0.3</v>
+      </c>
+      <c r="AC7">
+        <v>197933</v>
+      </c>
+      <c r="AD7">
+        <v>563.9</v>
+      </c>
+      <c r="AE7">
+        <v>1300.8</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>676.5</v>
+      </c>
+      <c r="AJ7">
+        <v>13336</v>
+      </c>
+      <c r="AK7">
+        <v>351</v>
+      </c>
+      <c r="AL7">
         <v>1319.6</v>
       </c>
-      <c r="Z7">
+      <c r="AM7">
         <v>150</v>
       </c>
-      <c r="AA7">
+      <c r="AN7">
         <v>42.7</v>
       </c>
-      <c r="AB7">
+      <c r="AO7">
         <v>-0</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:41">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8">
-        <v>378938</v>
+        <v>105031</v>
       </c>
       <c r="D8">
-        <v>1963.4</v>
+        <v>544.2</v>
       </c>
       <c r="E8">
-        <v>4666</v>
+        <v>1115.4</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -959,37 +1163,37 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1562</v>
+        <v>546</v>
       </c>
       <c r="J8">
-        <v>30621</v>
+        <v>7295</v>
       </c>
       <c r="K8">
         <v>193</v>
       </c>
       <c r="L8">
-        <v>3444.9</v>
+        <v>1167</v>
       </c>
       <c r="M8">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N8">
-        <v>57</v>
+        <v>46.6</v>
       </c>
       <c r="O8">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="P8">
-        <v>99762</v>
+        <v>38857</v>
       </c>
       <c r="Q8">
-        <v>516.9</v>
+        <v>201.3</v>
       </c>
       <c r="R8">
-        <v>1467.6</v>
+        <v>748.5</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1001,40 +1205,79 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>262</v>
+        <v>62</v>
       </c>
       <c r="W8">
-        <v>13336</v>
+        <v>6137</v>
       </c>
       <c r="X8">
         <v>193</v>
       </c>
       <c r="Y8">
+        <v>436.6</v>
+      </c>
+      <c r="Z8">
+        <v>89</v>
+      </c>
+      <c r="AA8">
+        <v>46.1</v>
+      </c>
+      <c r="AB8">
+        <v>-0.3</v>
+      </c>
+      <c r="AC8">
+        <v>99762</v>
+      </c>
+      <c r="AD8">
+        <v>516.9</v>
+      </c>
+      <c r="AE8">
+        <v>1467.6</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>262</v>
+      </c>
+      <c r="AJ8">
+        <v>13336</v>
+      </c>
+      <c r="AK8">
+        <v>193</v>
+      </c>
+      <c r="AL8">
         <v>1690.9</v>
       </c>
-      <c r="Z8">
+      <c r="AM8">
         <v>59</v>
       </c>
-      <c r="AA8">
+      <c r="AN8">
         <v>30.6</v>
       </c>
-      <c r="AB8">
+      <c r="AO8">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:41">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>32212</v>
+        <v>7844</v>
       </c>
       <c r="D9">
-        <v>3221.2</v>
+        <v>784.4</v>
       </c>
       <c r="E9">
-        <v>7075.5</v>
+        <v>1393.4</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1043,37 +1286,37 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>200.5</v>
+        <v>40</v>
       </c>
       <c r="I9">
-        <v>3142</v>
+        <v>664.8</v>
       </c>
       <c r="J9">
-        <v>22835</v>
+        <v>3881</v>
       </c>
       <c r="K9">
         <v>10</v>
       </c>
       <c r="L9">
-        <v>5368.7</v>
+        <v>1568.8</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="O9">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="P9">
-        <v>6797</v>
+        <v>1535</v>
       </c>
       <c r="Q9">
-        <v>679.7</v>
+        <v>153.5</v>
       </c>
       <c r="R9">
-        <v>1022.3</v>
+        <v>328.5</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1082,214 +1325,331 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="V9">
-        <v>1103.2</v>
+        <v>170.2</v>
       </c>
       <c r="W9">
-        <v>2866</v>
+        <v>1050</v>
       </c>
       <c r="X9">
         <v>10</v>
       </c>
       <c r="Y9">
+        <v>307</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
+      <c r="AA9">
+        <v>50</v>
+      </c>
+      <c r="AB9">
+        <v>-0.2</v>
+      </c>
+      <c r="AC9">
+        <v>6797</v>
+      </c>
+      <c r="AD9">
+        <v>679.7</v>
+      </c>
+      <c r="AE9">
+        <v>1022.3</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>1103.2</v>
+      </c>
+      <c r="AJ9">
+        <v>2866</v>
+      </c>
+      <c r="AK9">
+        <v>10</v>
+      </c>
+      <c r="AL9">
         <v>1699.2</v>
       </c>
-      <c r="Z9">
+      <c r="AM9">
         <v>4</v>
       </c>
-      <c r="AA9">
+      <c r="AN9">
         <v>40</v>
       </c>
-      <c r="AB9">
+      <c r="AO9">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:41">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>93363</v>
+        <v>29893</v>
       </c>
       <c r="D10">
-        <v>10373.7</v>
+        <v>3321.4</v>
       </c>
       <c r="E10">
-        <v>8447</v>
+        <v>3484</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>5298</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>10510</v>
+        <v>2940</v>
       </c>
       <c r="I10">
-        <v>13715</v>
+        <v>4487</v>
       </c>
       <c r="J10">
-        <v>23410</v>
+        <v>10793</v>
       </c>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10">
-        <v>11670.4</v>
+        <v>4982.2</v>
       </c>
       <c r="M10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N10">
-        <v>88.90000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="O10">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="P10">
-        <v>9962</v>
+        <v>49228</v>
       </c>
       <c r="Q10">
-        <v>1106.9</v>
+        <v>5469.8</v>
       </c>
       <c r="R10">
-        <v>1019.7</v>
+        <v>6263.5</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="U10">
-        <v>992</v>
+        <v>3095</v>
       </c>
       <c r="V10">
-        <v>1520</v>
+        <v>7474</v>
       </c>
       <c r="W10">
-        <v>2991</v>
+        <v>18016</v>
       </c>
       <c r="X10">
         <v>9</v>
       </c>
       <c r="Y10">
-        <v>1660.3</v>
+        <v>7032.6</v>
       </c>
       <c r="Z10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA10">
-        <v>66.7</v>
+        <v>77.8</v>
       </c>
       <c r="AB10">
         <v>0.7</v>
       </c>
+      <c r="AC10">
+        <v>9962</v>
+      </c>
+      <c r="AD10">
+        <v>1106.9</v>
+      </c>
+      <c r="AE10">
+        <v>1019.7</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>992</v>
+      </c>
+      <c r="AI10">
+        <v>1520</v>
+      </c>
+      <c r="AJ10">
+        <v>2991</v>
+      </c>
+      <c r="AK10">
+        <v>9</v>
+      </c>
+      <c r="AL10">
+        <v>1660.3</v>
+      </c>
+      <c r="AM10">
+        <v>6</v>
+      </c>
+      <c r="AN10">
+        <v>66.7</v>
+      </c>
+      <c r="AO10">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:41">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11">
-        <v>180110</v>
+        <v>117978</v>
       </c>
       <c r="D11">
-        <v>3602.2</v>
+        <v>2359.6</v>
       </c>
       <c r="E11">
-        <v>4883.5</v>
+        <v>3789.6</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>521.2</v>
+        <v>1.2</v>
       </c>
       <c r="H11">
-        <v>2087.5</v>
+        <v>1056.5</v>
       </c>
       <c r="I11">
-        <v>5372.2</v>
+        <v>2878</v>
       </c>
       <c r="J11">
-        <v>22952</v>
+        <v>18330</v>
       </c>
       <c r="K11">
         <v>50</v>
       </c>
       <c r="L11">
-        <v>4288.3</v>
+        <v>3188.6</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N11">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="O11">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="P11">
-        <v>31715</v>
+        <v>47250</v>
       </c>
       <c r="Q11">
-        <v>634.3</v>
+        <v>945</v>
       </c>
       <c r="R11">
-        <v>581.2</v>
+        <v>1321.6</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="U11">
-        <v>614.5</v>
+        <v>340</v>
       </c>
       <c r="V11">
-        <v>1036.2</v>
+        <v>1119.2</v>
       </c>
       <c r="W11">
-        <v>1969</v>
+        <v>4715</v>
       </c>
       <c r="X11">
         <v>50</v>
       </c>
       <c r="Y11">
+        <v>1211.5</v>
+      </c>
+      <c r="Z11">
+        <v>39</v>
+      </c>
+      <c r="AA11">
+        <v>78</v>
+      </c>
+      <c r="AB11">
+        <v>0.7</v>
+      </c>
+      <c r="AC11">
+        <v>31715</v>
+      </c>
+      <c r="AD11">
+        <v>634.3</v>
+      </c>
+      <c r="AE11">
+        <v>581.2</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>614.5</v>
+      </c>
+      <c r="AI11">
+        <v>1036.2</v>
+      </c>
+      <c r="AJ11">
+        <v>1969</v>
+      </c>
+      <c r="AK11">
+        <v>50</v>
+      </c>
+      <c r="AL11">
         <v>906.1</v>
       </c>
-      <c r="Z11">
+      <c r="AM11">
         <v>35</v>
       </c>
-      <c r="AA11">
+      <c r="AN11">
         <v>70</v>
       </c>
-      <c r="AB11">
+      <c r="AO11">
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:41">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>1548</v>
+        <v>1378</v>
       </c>
       <c r="D12">
+        <v>229.7</v>
+      </c>
+      <c r="E12">
         <v>258</v>
       </c>
-      <c r="E12">
-        <v>292.3</v>
-      </c>
       <c r="F12">
         <v>0</v>
       </c>
@@ -1297,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I12">
-        <v>533</v>
+        <v>440.2</v>
       </c>
       <c r="J12">
-        <v>584</v>
+        <v>547</v>
       </c>
       <c r="K12">
         <v>6</v>
       </c>
       <c r="L12">
-        <v>516</v>
+        <v>459.3</v>
       </c>
       <c r="M12">
         <v>3</v>
@@ -1318,16 +1678,16 @@
         <v>50</v>
       </c>
       <c r="O12">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="P12">
-        <v>2122</v>
+        <v>156</v>
       </c>
       <c r="Q12">
-        <v>353.7</v>
+        <v>26</v>
       </c>
       <c r="R12">
-        <v>422.3</v>
+        <v>42</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1336,19 +1696,19 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>216</v>
+        <v>7</v>
       </c>
       <c r="V12">
-        <v>654</v>
+        <v>29.8</v>
       </c>
       <c r="W12">
-        <v>962</v>
+        <v>107</v>
       </c>
       <c r="X12">
         <v>6</v>
       </c>
       <c r="Y12">
-        <v>707.3</v>
+        <v>52</v>
       </c>
       <c r="Z12">
         <v>3</v>
@@ -1357,43 +1717,82 @@
         <v>50</v>
       </c>
       <c r="AB12">
+        <v>-0.2</v>
+      </c>
+      <c r="AC12">
+        <v>2122</v>
+      </c>
+      <c r="AD12">
+        <v>353.7</v>
+      </c>
+      <c r="AE12">
+        <v>422.3</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>216</v>
+      </c>
+      <c r="AI12">
+        <v>654</v>
+      </c>
+      <c r="AJ12">
+        <v>962</v>
+      </c>
+      <c r="AK12">
+        <v>6</v>
+      </c>
+      <c r="AL12">
+        <v>707.3</v>
+      </c>
+      <c r="AM12">
+        <v>3</v>
+      </c>
+      <c r="AN12">
+        <v>50</v>
+      </c>
+      <c r="AO12">
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:41">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13">
-        <v>29852</v>
+        <v>11254</v>
       </c>
       <c r="D13">
-        <v>14926</v>
+        <v>5627</v>
       </c>
       <c r="E13">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>14923</v>
+        <v>5627</v>
       </c>
       <c r="G13">
-        <v>14924.5</v>
+        <v>5627</v>
       </c>
       <c r="H13">
-        <v>14926</v>
+        <v>5627</v>
       </c>
       <c r="I13">
-        <v>14927.5</v>
+        <v>5627</v>
       </c>
       <c r="J13">
-        <v>14929</v>
+        <v>5627</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
       <c r="L13">
-        <v>14926</v>
+        <v>5627</v>
       </c>
       <c r="M13">
         <v>2</v>
@@ -1402,37 +1801,37 @@
         <v>100</v>
       </c>
       <c r="O13">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="P13">
-        <v>1786</v>
+        <v>18391</v>
       </c>
       <c r="Q13">
-        <v>893</v>
+        <v>9195.5</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="S13">
-        <v>893</v>
+        <v>9195</v>
       </c>
       <c r="T13">
-        <v>893</v>
+        <v>9195.200000000001</v>
       </c>
       <c r="U13">
-        <v>893</v>
+        <v>9195.5</v>
       </c>
       <c r="V13">
-        <v>893</v>
+        <v>9195.799999999999</v>
       </c>
       <c r="W13">
-        <v>893</v>
+        <v>9196</v>
       </c>
       <c r="X13">
         <v>2</v>
       </c>
       <c r="Y13">
-        <v>893</v>
+        <v>9195.5</v>
       </c>
       <c r="Z13">
         <v>2</v>
@@ -1441,43 +1840,82 @@
         <v>100</v>
       </c>
       <c r="AB13">
+        <v>1.3</v>
+      </c>
+      <c r="AC13">
+        <v>1786</v>
+      </c>
+      <c r="AD13">
+        <v>893</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>893</v>
+      </c>
+      <c r="AG13">
+        <v>893</v>
+      </c>
+      <c r="AH13">
+        <v>893</v>
+      </c>
+      <c r="AI13">
+        <v>893</v>
+      </c>
+      <c r="AJ13">
+        <v>893</v>
+      </c>
+      <c r="AK13">
+        <v>2</v>
+      </c>
+      <c r="AL13">
+        <v>893</v>
+      </c>
+      <c r="AM13">
+        <v>2</v>
+      </c>
+      <c r="AN13">
+        <v>100</v>
+      </c>
+      <c r="AO13">
         <v>1.7</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:41">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
-        <v>7104</v>
+        <v>4559</v>
       </c>
       <c r="D14">
-        <v>3552</v>
+        <v>2279.5</v>
       </c>
       <c r="E14">
-        <v>4246.9</v>
+        <v>2608.5</v>
       </c>
       <c r="F14">
-        <v>549</v>
+        <v>435</v>
       </c>
       <c r="G14">
-        <v>2050.5</v>
+        <v>1357.2</v>
       </c>
       <c r="H14">
-        <v>3552</v>
+        <v>2279.5</v>
       </c>
       <c r="I14">
-        <v>5053.5</v>
+        <v>3201.8</v>
       </c>
       <c r="J14">
-        <v>6555</v>
+        <v>4124</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>3552</v>
+        <v>2279.5</v>
       </c>
       <c r="M14">
         <v>2</v>
@@ -1486,37 +1924,37 @@
         <v>100</v>
       </c>
       <c r="O14">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="P14">
-        <v>1540</v>
+        <v>2516</v>
       </c>
       <c r="Q14">
-        <v>770</v>
+        <v>1258</v>
       </c>
       <c r="R14">
-        <v>329.5</v>
+        <v>1615</v>
       </c>
       <c r="S14">
-        <v>537</v>
+        <v>116</v>
       </c>
       <c r="T14">
-        <v>653.5</v>
+        <v>687</v>
       </c>
       <c r="U14">
-        <v>770</v>
+        <v>1258</v>
       </c>
       <c r="V14">
-        <v>886.5</v>
+        <v>1829</v>
       </c>
       <c r="W14">
-        <v>1003</v>
+        <v>2400</v>
       </c>
       <c r="X14">
         <v>2</v>
       </c>
       <c r="Y14">
-        <v>770</v>
+        <v>1258</v>
       </c>
       <c r="Z14">
         <v>2</v>
@@ -1525,42 +1963,81 @@
         <v>100</v>
       </c>
       <c r="AB14">
+        <v>1.3</v>
+      </c>
+      <c r="AC14">
+        <v>1540</v>
+      </c>
+      <c r="AD14">
+        <v>770</v>
+      </c>
+      <c r="AE14">
+        <v>329.5</v>
+      </c>
+      <c r="AF14">
+        <v>537</v>
+      </c>
+      <c r="AG14">
+        <v>653.5</v>
+      </c>
+      <c r="AH14">
+        <v>770</v>
+      </c>
+      <c r="AI14">
+        <v>886.5</v>
+      </c>
+      <c r="AJ14">
+        <v>1003</v>
+      </c>
+      <c r="AK14">
+        <v>2</v>
+      </c>
+      <c r="AL14">
+        <v>770</v>
+      </c>
+      <c r="AM14">
+        <v>2</v>
+      </c>
+      <c r="AN14">
+        <v>100</v>
+      </c>
+      <c r="AO14">
         <v>1.7</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:41">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15">
-        <v>856</v>
+        <v>548</v>
       </c>
       <c r="D15">
-        <v>856</v>
+        <v>548</v>
       </c>
       <c r="F15">
-        <v>856</v>
+        <v>548</v>
       </c>
       <c r="G15">
-        <v>856</v>
+        <v>548</v>
       </c>
       <c r="H15">
-        <v>856</v>
+        <v>548</v>
       </c>
       <c r="I15">
-        <v>856</v>
+        <v>548</v>
       </c>
       <c r="J15">
-        <v>856</v>
+        <v>548</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>856</v>
+        <v>548</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1569,34 +2046,34 @@
         <v>100</v>
       </c>
       <c r="O15">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="P15">
-        <v>577</v>
+        <v>304</v>
       </c>
       <c r="Q15">
-        <v>577</v>
+        <v>304</v>
       </c>
       <c r="S15">
-        <v>577</v>
+        <v>304</v>
       </c>
       <c r="T15">
-        <v>577</v>
+        <v>304</v>
       </c>
       <c r="U15">
-        <v>577</v>
+        <v>304</v>
       </c>
       <c r="V15">
-        <v>577</v>
+        <v>304</v>
       </c>
       <c r="W15">
-        <v>577</v>
+        <v>304</v>
       </c>
       <c r="X15">
         <v>1</v>
       </c>
       <c r="Y15">
-        <v>577</v>
+        <v>304</v>
       </c>
       <c r="Z15">
         <v>1</v>
@@ -1605,40 +2082,76 @@
         <v>100</v>
       </c>
       <c r="AB15">
+        <v>1.3</v>
+      </c>
+      <c r="AC15">
+        <v>577</v>
+      </c>
+      <c r="AD15">
+        <v>577</v>
+      </c>
+      <c r="AF15">
+        <v>577</v>
+      </c>
+      <c r="AG15">
+        <v>577</v>
+      </c>
+      <c r="AH15">
+        <v>577</v>
+      </c>
+      <c r="AI15">
+        <v>577</v>
+      </c>
+      <c r="AJ15">
+        <v>577</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>577</v>
+      </c>
+      <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>100</v>
+      </c>
+      <c r="AO15">
         <v>1.7</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:41">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="D16">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="F16">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="G16">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="H16">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="I16">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="J16">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -1647,46 +2160,82 @@
         <v>100</v>
       </c>
       <c r="O16">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="X16">
         <v>1</v>
       </c>
+      <c r="Y16">
+        <v>94</v>
+      </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB16">
+        <v>1.3</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:41">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1719,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>-2</v>
+        <v>-1.7</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1752,43 +2301,76 @@
         <v>0</v>
       </c>
       <c r="AB17">
+        <v>-1.7</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:41">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="D18">
-        <v>1021</v>
+        <v>816.5</v>
       </c>
       <c r="E18">
-        <v>1443.9</v>
+        <v>1154.7</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>510.5</v>
+        <v>408.2</v>
       </c>
       <c r="H18">
-        <v>1021</v>
+        <v>816.5</v>
       </c>
       <c r="I18">
-        <v>1531.5</v>
+        <v>1224.8</v>
       </c>
       <c r="J18">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
       <c r="L18">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -1797,37 +2379,37 @@
         <v>50</v>
       </c>
       <c r="O18">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="P18">
-        <v>675</v>
+        <v>411</v>
       </c>
       <c r="Q18">
-        <v>337.5</v>
+        <v>205.5</v>
       </c>
       <c r="R18">
-        <v>477.3</v>
+        <v>290.6</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>168.8</v>
+        <v>102.8</v>
       </c>
       <c r="U18">
-        <v>337.5</v>
+        <v>205.5</v>
       </c>
       <c r="V18">
-        <v>506.2</v>
+        <v>308.2</v>
       </c>
       <c r="W18">
-        <v>675</v>
+        <v>411</v>
       </c>
       <c r="X18">
         <v>2</v>
       </c>
       <c r="Y18">
-        <v>675</v>
+        <v>411</v>
       </c>
       <c r="Z18">
         <v>1</v>
@@ -1836,108 +2418,186 @@
         <v>50</v>
       </c>
       <c r="AB18">
+        <v>-0.2</v>
+      </c>
+      <c r="AC18">
+        <v>675</v>
+      </c>
+      <c r="AD18">
+        <v>337.5</v>
+      </c>
+      <c r="AE18">
+        <v>477.3</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>168.8</v>
+      </c>
+      <c r="AH18">
+        <v>337.5</v>
+      </c>
+      <c r="AI18">
+        <v>506.2</v>
+      </c>
+      <c r="AJ18">
+        <v>675</v>
+      </c>
+      <c r="AK18">
+        <v>2</v>
+      </c>
+      <c r="AL18">
+        <v>675</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>50</v>
+      </c>
+      <c r="AO18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:41">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
-        <v>4665</v>
+        <v>3145</v>
       </c>
       <c r="D19">
-        <v>358.8</v>
+        <v>241.9</v>
       </c>
       <c r="E19">
-        <v>304.9</v>
+        <v>201.4</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>433</v>
+        <v>328</v>
       </c>
       <c r="I19">
-        <v>634</v>
+        <v>421</v>
       </c>
       <c r="J19">
-        <v>826</v>
+        <v>533</v>
       </c>
       <c r="K19">
         <v>13</v>
       </c>
       <c r="L19">
-        <v>466.5</v>
+        <v>349.4</v>
       </c>
       <c r="M19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N19">
-        <v>76.90000000000001</v>
+        <v>69.2</v>
       </c>
       <c r="O19">
         <v>0.4</v>
       </c>
       <c r="P19">
-        <v>3304</v>
+        <v>1506</v>
       </c>
       <c r="Q19">
-        <v>254.2</v>
+        <v>115.8</v>
       </c>
       <c r="R19">
-        <v>181.6</v>
+        <v>112.5</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="U19">
-        <v>341</v>
+        <v>73</v>
       </c>
       <c r="V19">
-        <v>366</v>
+        <v>202</v>
       </c>
       <c r="W19">
-        <v>473</v>
+        <v>327</v>
       </c>
       <c r="X19">
         <v>13</v>
       </c>
       <c r="Y19">
+        <v>150.6</v>
+      </c>
+      <c r="Z19">
+        <v>10</v>
+      </c>
+      <c r="AA19">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="AB19">
+        <v>0.6</v>
+      </c>
+      <c r="AC19">
+        <v>3304</v>
+      </c>
+      <c r="AD19">
+        <v>254.2</v>
+      </c>
+      <c r="AE19">
+        <v>181.6</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>341</v>
+      </c>
+      <c r="AI19">
+        <v>366</v>
+      </c>
+      <c r="AJ19">
+        <v>473</v>
+      </c>
+      <c r="AK19">
+        <v>13</v>
+      </c>
+      <c r="AL19">
         <v>367.1</v>
       </c>
-      <c r="Z19">
+      <c r="AM19">
         <v>9</v>
       </c>
-      <c r="AA19">
+      <c r="AN19">
         <v>69.2</v>
       </c>
-      <c r="AB19">
+      <c r="AO19">
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:41">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20">
-        <v>5794</v>
+        <v>4085</v>
       </c>
       <c r="D20">
-        <v>214.6</v>
+        <v>151.3</v>
       </c>
       <c r="E20">
-        <v>591</v>
+        <v>424.8</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1949,34 +2609,34 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="J20">
-        <v>2773</v>
+        <v>2032</v>
       </c>
       <c r="K20">
         <v>27</v>
       </c>
       <c r="L20">
-        <v>579.4</v>
+        <v>453.9</v>
       </c>
       <c r="M20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N20">
-        <v>37</v>
+        <v>33.3</v>
       </c>
       <c r="O20">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="P20">
-        <v>1929</v>
+        <v>1684</v>
       </c>
       <c r="Q20">
-        <v>71.40000000000001</v>
+        <v>62.4</v>
       </c>
       <c r="R20">
-        <v>172.2</v>
+        <v>167.2</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -1988,40 +2648,79 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>21.5</v>
+        <v>12.5</v>
       </c>
       <c r="W20">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="X20">
         <v>27</v>
       </c>
       <c r="Y20">
+        <v>168.4</v>
+      </c>
+      <c r="Z20">
+        <v>10</v>
+      </c>
+      <c r="AA20">
+        <v>37</v>
+      </c>
+      <c r="AB20">
+        <v>-0.6</v>
+      </c>
+      <c r="AC20">
+        <v>1929</v>
+      </c>
+      <c r="AD20">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="AE20">
+        <v>172.2</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>21.5</v>
+      </c>
+      <c r="AJ20">
+        <v>727</v>
+      </c>
+      <c r="AK20">
+        <v>27</v>
+      </c>
+      <c r="AL20">
         <v>275.6</v>
       </c>
-      <c r="Z20">
+      <c r="AM20">
         <v>7</v>
       </c>
-      <c r="AA20">
+      <c r="AN20">
         <v>25.9</v>
       </c>
-      <c r="AB20">
+      <c r="AO20">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:41">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21">
-        <v>795</v>
+        <v>573</v>
       </c>
       <c r="D21">
-        <v>72.3</v>
+        <v>52.1</v>
       </c>
       <c r="E21">
-        <v>174</v>
+        <v>123.2</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2036,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>546</v>
+        <v>380</v>
       </c>
       <c r="K21">
         <v>11</v>
       </c>
       <c r="L21">
-        <v>397.5</v>
+        <v>286.5</v>
       </c>
       <c r="M21">
         <v>2</v>
@@ -2051,16 +2750,16 @@
         <v>18.2</v>
       </c>
       <c r="O21">
-        <v>-1.4</v>
+        <v>-1.2</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>51.8</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2075,25 +2774,64 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="X21">
         <v>11</v>
       </c>
+      <c r="Y21">
+        <v>112</v>
+      </c>
       <c r="Z21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>18.2</v>
       </c>
       <c r="AB21">
+        <v>-1.2</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>11</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:41">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2126,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>-2</v>
+        <v>-1.7</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -2159,93 +2897,156 @@
         <v>0</v>
       </c>
       <c r="AB22">
+        <v>-1.7</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:41">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23">
-        <v>6501</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>6501</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>6501</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>6501</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>6501</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>6501</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>6501</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
-      <c r="L23">
-        <v>6501</v>
-      </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.2</v>
+        <v>-1.7</v>
       </c>
       <c r="P23">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="X23">
         <v>1</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>-1.7</v>
+      </c>
+      <c r="AC23">
         <v>395</v>
       </c>
-      <c r="Z23">
+      <c r="AD23">
+        <v>395</v>
+      </c>
+      <c r="AF23">
+        <v>395</v>
+      </c>
+      <c r="AG23">
+        <v>395</v>
+      </c>
+      <c r="AH23">
+        <v>395</v>
+      </c>
+      <c r="AI23">
+        <v>395</v>
+      </c>
+      <c r="AJ23">
+        <v>395</v>
+      </c>
+      <c r="AK23">
         <v>1</v>
       </c>
-      <c r="AA23">
+      <c r="AL23">
+        <v>395</v>
+      </c>
+      <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
         <v>100</v>
       </c>
-      <c r="AB23">
+      <c r="AO23">
         <v>1.7</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:41">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2278,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>-2</v>
+        <v>-1.7</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2311,13 +3112,46 @@
         <v>0</v>
       </c>
       <c r="AB24">
+        <v>-1.7</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:41">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2353,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>-2</v>
+        <v>-1.7</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2389,13 +3223,49 @@
         <v>0</v>
       </c>
       <c r="AB25">
+        <v>-1.7</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>3</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:41">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2431,16 +3301,16 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>-2</v>
+        <v>-1.7</v>
       </c>
       <c r="P26">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>39.6</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>104.7</v>
+        <v>0</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -2455,37 +3325,73 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="X26">
         <v>7</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>-1.7</v>
+      </c>
+      <c r="AC26">
         <v>277</v>
       </c>
-      <c r="Z26">
+      <c r="AD26">
+        <v>39.6</v>
+      </c>
+      <c r="AE26">
+        <v>104.7</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>277</v>
+      </c>
+      <c r="AK26">
+        <v>7</v>
+      </c>
+      <c r="AL26">
+        <v>277</v>
+      </c>
+      <c r="AM26">
         <v>1</v>
       </c>
-      <c r="AA26">
+      <c r="AN26">
         <v>14.3</v>
       </c>
-      <c r="AB26">
+      <c r="AO26">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:41">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
-        <v>738</v>
+        <v>650</v>
       </c>
       <c r="D27">
-        <v>105.4</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E27">
-        <v>278.9</v>
+        <v>245.7</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2500,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>738</v>
+        <v>650</v>
       </c>
       <c r="K27">
         <v>7</v>
       </c>
       <c r="L27">
-        <v>738</v>
+        <v>650</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -2515,16 +3421,16 @@
         <v>14.3</v>
       </c>
       <c r="O27">
-        <v>-1.5</v>
+        <v>-1.3</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -2539,120 +3445,198 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="X27">
         <v>7</v>
       </c>
+      <c r="Y27">
+        <v>86</v>
+      </c>
       <c r="Z27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="AB27">
         <v>-1.3</v>
       </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>7</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>-1.3</v>
+      </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:41">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28">
-        <v>82190</v>
+        <v>61194</v>
       </c>
       <c r="D28">
-        <v>903.2</v>
+        <v>672.5</v>
       </c>
       <c r="E28">
-        <v>939.4</v>
+        <v>700.1</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>382.5</v>
+        <v>296</v>
       </c>
       <c r="H28">
-        <v>702</v>
+        <v>523</v>
       </c>
       <c r="I28">
-        <v>1162.5</v>
+        <v>885</v>
       </c>
       <c r="J28">
-        <v>6242</v>
+        <v>5055</v>
       </c>
       <c r="K28">
         <v>91</v>
       </c>
       <c r="L28">
-        <v>1002.3</v>
+        <v>764.9</v>
       </c>
       <c r="M28">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N28">
-        <v>90.09999999999999</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="O28">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P28">
-        <v>32567</v>
+        <v>20898</v>
       </c>
       <c r="Q28">
-        <v>357.9</v>
+        <v>229.6</v>
       </c>
       <c r="R28">
-        <v>326.7</v>
+        <v>275</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>81.5</v>
       </c>
       <c r="U28">
-        <v>326</v>
+        <v>171</v>
       </c>
       <c r="V28">
-        <v>608.5</v>
+        <v>286</v>
       </c>
       <c r="W28">
-        <v>1253</v>
+        <v>1968</v>
       </c>
       <c r="X28">
         <v>91</v>
       </c>
       <c r="Y28">
+        <v>254.9</v>
+      </c>
+      <c r="Z28">
+        <v>82</v>
+      </c>
+      <c r="AA28">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
+        <v>32567</v>
+      </c>
+      <c r="AD28">
+        <v>357.9</v>
+      </c>
+      <c r="AE28">
+        <v>326.7</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>326</v>
+      </c>
+      <c r="AI28">
+        <v>608.5</v>
+      </c>
+      <c r="AJ28">
+        <v>1253</v>
+      </c>
+      <c r="AK28">
+        <v>91</v>
+      </c>
+      <c r="AL28">
         <v>533.9</v>
       </c>
-      <c r="Z28">
+      <c r="AM28">
         <v>61</v>
       </c>
-      <c r="AA28">
+      <c r="AN28">
         <v>67</v>
       </c>
-      <c r="AB28">
+      <c r="AO28">
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:41">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29">
-        <v>19531</v>
+        <v>14679</v>
       </c>
       <c r="D29">
-        <v>300.5</v>
+        <v>225.8</v>
       </c>
       <c r="E29">
-        <v>963.2</v>
+        <v>615.2</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2661,37 +3645,37 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="J29">
-        <v>7348</v>
+        <v>4429</v>
       </c>
       <c r="K29">
         <v>65</v>
       </c>
       <c r="L29">
-        <v>558</v>
+        <v>431.7</v>
       </c>
       <c r="M29">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N29">
-        <v>53.8</v>
+        <v>52.3</v>
       </c>
       <c r="O29">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="P29">
-        <v>7874</v>
+        <v>4823</v>
       </c>
       <c r="Q29">
-        <v>121.1</v>
+        <v>74.2</v>
       </c>
       <c r="R29">
-        <v>213</v>
+        <v>362.7</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -2700,43 +3684,82 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="W29">
-        <v>714</v>
+        <v>2905</v>
       </c>
       <c r="X29">
         <v>65</v>
       </c>
       <c r="Y29">
+        <v>137.8</v>
+      </c>
+      <c r="Z29">
+        <v>35</v>
+      </c>
+      <c r="AA29">
+        <v>53.8</v>
+      </c>
+      <c r="AB29">
+        <v>-0.1</v>
+      </c>
+      <c r="AC29">
+        <v>7874</v>
+      </c>
+      <c r="AD29">
+        <v>121.1</v>
+      </c>
+      <c r="AE29">
+        <v>213</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>186</v>
+      </c>
+      <c r="AJ29">
+        <v>714</v>
+      </c>
+      <c r="AK29">
+        <v>65</v>
+      </c>
+      <c r="AL29">
         <v>375</v>
       </c>
-      <c r="Z29">
+      <c r="AM29">
         <v>21</v>
       </c>
-      <c r="AA29">
+      <c r="AN29">
         <v>32.3</v>
       </c>
-      <c r="AB29">
+      <c r="AO29">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:41">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30">
-        <v>11934</v>
+        <v>10521</v>
       </c>
       <c r="D30">
-        <v>477.4</v>
+        <v>420.8</v>
       </c>
       <c r="E30">
-        <v>1943.5</v>
+        <v>1746.3</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2748,16 +3771,16 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="J30">
-        <v>9764</v>
+        <v>8769</v>
       </c>
       <c r="K30">
         <v>25</v>
       </c>
       <c r="L30">
-        <v>994.5</v>
+        <v>876.8</v>
       </c>
       <c r="M30">
         <v>12</v>
@@ -2766,16 +3789,16 @@
         <v>48</v>
       </c>
       <c r="O30">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="P30">
-        <v>1843</v>
+        <v>1404</v>
       </c>
       <c r="Q30">
-        <v>73.7</v>
+        <v>56.2</v>
       </c>
       <c r="R30">
-        <v>169.9</v>
+        <v>196.3</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -2787,61 +3810,100 @@
         <v>0</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="W30">
-        <v>576</v>
+        <v>988</v>
       </c>
       <c r="X30">
         <v>25</v>
       </c>
       <c r="Y30">
+        <v>117</v>
+      </c>
+      <c r="Z30">
+        <v>12</v>
+      </c>
+      <c r="AA30">
+        <v>48</v>
+      </c>
+      <c r="AB30">
+        <v>-0.3</v>
+      </c>
+      <c r="AC30">
+        <v>1843</v>
+      </c>
+      <c r="AD30">
+        <v>73.7</v>
+      </c>
+      <c r="AE30">
+        <v>169.9</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>576</v>
+      </c>
+      <c r="AK30">
+        <v>25</v>
+      </c>
+      <c r="AL30">
         <v>368.6</v>
       </c>
-      <c r="Z30">
+      <c r="AM30">
         <v>5</v>
       </c>
-      <c r="AA30">
+      <c r="AN30">
         <v>20</v>
       </c>
-      <c r="AB30">
+      <c r="AO30">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:41">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D31">
-        <v>132</v>
+        <v>128.5</v>
       </c>
       <c r="E31">
-        <v>186.7</v>
+        <v>181.7</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>66</v>
+        <v>64.2</v>
       </c>
       <c r="H31">
-        <v>132</v>
+        <v>128.5</v>
       </c>
       <c r="I31">
-        <v>198</v>
+        <v>192.8</v>
       </c>
       <c r="J31">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K31">
         <v>2</v>
       </c>
       <c r="L31">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -2850,81 +3912,120 @@
         <v>50</v>
       </c>
       <c r="O31">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X31">
         <v>2</v>
       </c>
+      <c r="Y31">
+        <v>7</v>
+      </c>
       <c r="Z31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB31">
+        <v>-0.2</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>2</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:41">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C32">
-        <v>3868</v>
+        <v>2301</v>
       </c>
       <c r="D32">
-        <v>1289.3</v>
+        <v>767</v>
       </c>
       <c r="E32">
-        <v>1213.3</v>
+        <v>827.4</v>
       </c>
       <c r="F32">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G32">
-        <v>696</v>
+        <v>319.5</v>
       </c>
       <c r="H32">
-        <v>1341</v>
+        <v>609</v>
       </c>
       <c r="I32">
-        <v>1908.5</v>
+        <v>1135.5</v>
       </c>
       <c r="J32">
-        <v>2476</v>
+        <v>1662</v>
       </c>
       <c r="K32">
         <v>3</v>
       </c>
       <c r="L32">
-        <v>1289.3</v>
+        <v>767</v>
       </c>
       <c r="M32">
         <v>3</v>
@@ -2933,37 +4034,37 @@
         <v>100</v>
       </c>
       <c r="O32">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="P32">
-        <v>2676</v>
+        <v>1561</v>
       </c>
       <c r="Q32">
-        <v>892</v>
+        <v>520.3</v>
       </c>
       <c r="R32">
-        <v>723</v>
+        <v>434.2</v>
       </c>
       <c r="S32">
-        <v>364</v>
+        <v>21</v>
       </c>
       <c r="T32">
-        <v>480</v>
+        <v>376</v>
       </c>
       <c r="U32">
-        <v>596</v>
+        <v>731</v>
       </c>
       <c r="V32">
-        <v>1156</v>
+        <v>770</v>
       </c>
       <c r="W32">
-        <v>1716</v>
+        <v>809</v>
       </c>
       <c r="X32">
         <v>3</v>
       </c>
       <c r="Y32">
-        <v>892</v>
+        <v>520.3</v>
       </c>
       <c r="Z32">
         <v>3</v>
@@ -2972,43 +4073,82 @@
         <v>100</v>
       </c>
       <c r="AB32">
+        <v>1.3</v>
+      </c>
+      <c r="AC32">
+        <v>2676</v>
+      </c>
+      <c r="AD32">
+        <v>892</v>
+      </c>
+      <c r="AE32">
+        <v>723</v>
+      </c>
+      <c r="AF32">
+        <v>364</v>
+      </c>
+      <c r="AG32">
+        <v>480</v>
+      </c>
+      <c r="AH32">
+        <v>596</v>
+      </c>
+      <c r="AI32">
+        <v>1156</v>
+      </c>
+      <c r="AJ32">
+        <v>1716</v>
+      </c>
+      <c r="AK32">
+        <v>3</v>
+      </c>
+      <c r="AL32">
+        <v>892</v>
+      </c>
+      <c r="AM32">
+        <v>3</v>
+      </c>
+      <c r="AN32">
+        <v>100</v>
+      </c>
+      <c r="AO32">
         <v>1.7</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:41">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33">
-        <v>7250</v>
+        <v>5747</v>
       </c>
       <c r="D33">
-        <v>517.9</v>
+        <v>410.5</v>
       </c>
       <c r="E33">
-        <v>726.1</v>
+        <v>529.4</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H33">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="I33">
-        <v>694.2</v>
+        <v>620.8</v>
       </c>
       <c r="J33">
-        <v>2476</v>
+        <v>1662</v>
       </c>
       <c r="K33">
         <v>14</v>
       </c>
       <c r="L33">
-        <v>725</v>
+        <v>574.7</v>
       </c>
       <c r="M33">
         <v>10</v>
@@ -3017,61 +4157,100 @@
         <v>71.40000000000001</v>
       </c>
       <c r="O33">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="P33">
-        <v>2256</v>
+        <v>1487</v>
       </c>
       <c r="Q33">
-        <v>161.1</v>
+        <v>106.2</v>
       </c>
       <c r="R33">
-        <v>459.6</v>
+        <v>214.2</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="W33">
-        <v>1716</v>
+        <v>809</v>
       </c>
       <c r="X33">
         <v>14</v>
       </c>
       <c r="Y33">
+        <v>148.7</v>
+      </c>
+      <c r="Z33">
+        <v>10</v>
+      </c>
+      <c r="AA33">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="AB33">
+        <v>0.5</v>
+      </c>
+      <c r="AC33">
+        <v>2256</v>
+      </c>
+      <c r="AD33">
+        <v>161.1</v>
+      </c>
+      <c r="AE33">
+        <v>459.6</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>1716</v>
+      </c>
+      <c r="AK33">
+        <v>14</v>
+      </c>
+      <c r="AL33">
         <v>752</v>
       </c>
-      <c r="Z33">
+      <c r="AM33">
         <v>3</v>
       </c>
-      <c r="AA33">
+      <c r="AN33">
         <v>21.4</v>
       </c>
-      <c r="AB33">
+      <c r="AO33">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:41">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D34">
-        <v>32.3</v>
+        <v>31.2</v>
       </c>
       <c r="E34">
-        <v>79.2</v>
+        <v>76.3</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3086,13 +4265,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="K34">
         <v>6</v>
       </c>
       <c r="L34">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -3101,16 +4280,16 @@
         <v>16.7</v>
       </c>
       <c r="O34">
-        <v>-1.5</v>
+        <v>-1.2</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -3125,34 +4304,73 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X34">
         <v>6</v>
       </c>
+      <c r="Y34">
+        <v>7</v>
+      </c>
       <c r="Z34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="AB34">
+        <v>-1.2</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>6</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:41">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
-        <v>1550</v>
+        <v>1122</v>
       </c>
       <c r="D35">
-        <v>516.7</v>
+        <v>374</v>
       </c>
       <c r="E35">
-        <v>894.9</v>
+        <v>647.8</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -3164,16 +4382,16 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>775</v>
+        <v>561</v>
       </c>
       <c r="J35">
-        <v>1550</v>
+        <v>1122</v>
       </c>
       <c r="K35">
         <v>3</v>
       </c>
       <c r="L35">
-        <v>1550</v>
+        <v>1122</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -3182,16 +4400,16 @@
         <v>33.3</v>
       </c>
       <c r="O35">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="P35">
-        <v>539</v>
+        <v>425</v>
       </c>
       <c r="Q35">
-        <v>179.7</v>
+        <v>141.7</v>
       </c>
       <c r="R35">
-        <v>311.2</v>
+        <v>245.4</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -3203,16 +4421,16 @@
         <v>0</v>
       </c>
       <c r="V35">
-        <v>269.5</v>
+        <v>212.5</v>
       </c>
       <c r="W35">
-        <v>539</v>
+        <v>425</v>
       </c>
       <c r="X35">
         <v>3</v>
       </c>
       <c r="Y35">
-        <v>539</v>
+        <v>425</v>
       </c>
       <c r="Z35">
         <v>1</v>
@@ -3221,42 +4439,81 @@
         <v>33.3</v>
       </c>
       <c r="AB35">
+        <v>-0.7</v>
+      </c>
+      <c r="AC35">
+        <v>539</v>
+      </c>
+      <c r="AD35">
+        <v>179.7</v>
+      </c>
+      <c r="AE35">
+        <v>311.2</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>269.5</v>
+      </c>
+      <c r="AJ35">
+        <v>539</v>
+      </c>
+      <c r="AK35">
+        <v>3</v>
+      </c>
+      <c r="AL35">
+        <v>539</v>
+      </c>
+      <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>33.3</v>
+      </c>
+      <c r="AO35">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:41">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C36">
-        <v>9202</v>
+        <v>1500</v>
       </c>
       <c r="D36">
-        <v>9202</v>
+        <v>1500</v>
       </c>
       <c r="F36">
-        <v>9202</v>
+        <v>1500</v>
       </c>
       <c r="G36">
-        <v>9202</v>
+        <v>1500</v>
       </c>
       <c r="H36">
-        <v>9202</v>
+        <v>1500</v>
       </c>
       <c r="I36">
-        <v>9202</v>
+        <v>1500</v>
       </c>
       <c r="J36">
-        <v>9202</v>
+        <v>1500</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36">
-        <v>9202</v>
+        <v>1500</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -3265,34 +4522,34 @@
         <v>100</v>
       </c>
       <c r="O36">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="P36">
-        <v>291</v>
+        <v>7655</v>
       </c>
       <c r="Q36">
-        <v>291</v>
+        <v>7655</v>
       </c>
       <c r="S36">
-        <v>291</v>
+        <v>7655</v>
       </c>
       <c r="T36">
-        <v>291</v>
+        <v>7655</v>
       </c>
       <c r="U36">
-        <v>291</v>
+        <v>7655</v>
       </c>
       <c r="V36">
-        <v>291</v>
+        <v>7655</v>
       </c>
       <c r="W36">
-        <v>291</v>
+        <v>7655</v>
       </c>
       <c r="X36">
         <v>1</v>
       </c>
       <c r="Y36">
-        <v>291</v>
+        <v>7655</v>
       </c>
       <c r="Z36">
         <v>1</v>
@@ -3301,190 +4558,304 @@
         <v>100</v>
       </c>
       <c r="AB36">
+        <v>1.3</v>
+      </c>
+      <c r="AC36">
+        <v>291</v>
+      </c>
+      <c r="AD36">
+        <v>291</v>
+      </c>
+      <c r="AF36">
+        <v>291</v>
+      </c>
+      <c r="AG36">
+        <v>291</v>
+      </c>
+      <c r="AH36">
+        <v>291</v>
+      </c>
+      <c r="AI36">
+        <v>291</v>
+      </c>
+      <c r="AJ36">
+        <v>291</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>291</v>
+      </c>
+      <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>100</v>
+      </c>
+      <c r="AO36">
         <v>1.7</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:41">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C37">
-        <v>363401</v>
+        <v>204290</v>
       </c>
       <c r="D37">
-        <v>2732.3</v>
+        <v>1536</v>
       </c>
       <c r="E37">
-        <v>4541.2</v>
+        <v>2099</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="H37">
-        <v>1372</v>
+        <v>989</v>
       </c>
       <c r="I37">
-        <v>3013</v>
+        <v>1915</v>
       </c>
       <c r="J37">
-        <v>31042</v>
+        <v>11096</v>
       </c>
       <c r="K37">
         <v>133</v>
       </c>
       <c r="L37">
-        <v>3334</v>
+        <v>1927.3</v>
       </c>
       <c r="M37">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N37">
-        <v>82</v>
+        <v>79.7</v>
       </c>
       <c r="O37">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="P37">
-        <v>85997</v>
+        <v>118281</v>
       </c>
       <c r="Q37">
-        <v>646.6</v>
+        <v>889.3</v>
       </c>
       <c r="R37">
-        <v>725.4</v>
+        <v>2216.8</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U37">
-        <v>556</v>
+        <v>236</v>
       </c>
       <c r="V37">
-        <v>1051</v>
+        <v>812</v>
       </c>
       <c r="W37">
-        <v>4241</v>
+        <v>20111</v>
       </c>
       <c r="X37">
         <v>133</v>
       </c>
       <c r="Y37">
-        <v>988.5</v>
+        <v>1105.4</v>
       </c>
       <c r="Z37">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="AA37">
-        <v>65.40000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="AB37">
         <v>0.7</v>
       </c>
+      <c r="AC37">
+        <v>85997</v>
+      </c>
+      <c r="AD37">
+        <v>646.6</v>
+      </c>
+      <c r="AE37">
+        <v>725.4</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>556</v>
+      </c>
+      <c r="AI37">
+        <v>1051</v>
+      </c>
+      <c r="AJ37">
+        <v>4241</v>
+      </c>
+      <c r="AK37">
+        <v>133</v>
+      </c>
+      <c r="AL37">
+        <v>988.5</v>
+      </c>
+      <c r="AM37">
+        <v>87</v>
+      </c>
+      <c r="AN37">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="AO37">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:41">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38">
-        <v>452878</v>
+        <v>302737</v>
       </c>
       <c r="D38">
-        <v>1484.8</v>
+        <v>992.6</v>
       </c>
       <c r="E38">
-        <v>3929.6</v>
+        <v>2912</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H38">
-        <v>422</v>
+        <v>345</v>
       </c>
       <c r="I38">
-        <v>1547</v>
+        <v>1127</v>
       </c>
       <c r="J38">
-        <v>45403</v>
+        <v>43003</v>
       </c>
       <c r="K38">
         <v>305</v>
       </c>
       <c r="L38">
-        <v>1826.1</v>
+        <v>1277.4</v>
       </c>
       <c r="M38">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="N38">
-        <v>81.3</v>
+        <v>77.7</v>
       </c>
       <c r="O38">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="P38">
-        <v>106968</v>
+        <v>80841</v>
       </c>
       <c r="Q38">
-        <v>350.7</v>
+        <v>265.1</v>
       </c>
       <c r="R38">
-        <v>591.6</v>
+        <v>706.8</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V38">
-        <v>556</v>
+        <v>245</v>
       </c>
       <c r="W38">
-        <v>6335</v>
+        <v>7809</v>
       </c>
       <c r="X38">
         <v>305</v>
       </c>
       <c r="Y38">
+        <v>338.2</v>
+      </c>
+      <c r="Z38">
+        <v>239</v>
+      </c>
+      <c r="AA38">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="AB38">
+        <v>0.7</v>
+      </c>
+      <c r="AC38">
+        <v>106968</v>
+      </c>
+      <c r="AD38">
+        <v>350.7</v>
+      </c>
+      <c r="AE38">
+        <v>591.6</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>556</v>
+      </c>
+      <c r="AJ38">
+        <v>6335</v>
+      </c>
+      <c r="AK38">
+        <v>305</v>
+      </c>
+      <c r="AL38">
         <v>742.8</v>
       </c>
-      <c r="Z38">
+      <c r="AM38">
         <v>144</v>
       </c>
-      <c r="AA38">
+      <c r="AN38">
         <v>47.2</v>
       </c>
-      <c r="AB38">
+      <c r="AO38">
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:41">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39">
-        <v>1212225</v>
+        <v>488532</v>
       </c>
       <c r="D39">
-        <v>1174.6</v>
+        <v>473.4</v>
       </c>
       <c r="E39">
-        <v>4350.1</v>
+        <v>1758.7</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -3493,37 +4864,37 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>52</v>
+        <v>24.5</v>
       </c>
       <c r="I39">
-        <v>663.2</v>
+        <v>437.8</v>
       </c>
       <c r="J39">
-        <v>72982</v>
+        <v>47580</v>
       </c>
       <c r="K39">
         <v>1032</v>
       </c>
       <c r="L39">
-        <v>1879.4</v>
+        <v>830.8</v>
       </c>
       <c r="M39">
-        <v>645</v>
+        <v>588</v>
       </c>
       <c r="N39">
-        <v>62.5</v>
+        <v>57</v>
       </c>
       <c r="O39">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P39">
-        <v>161733</v>
+        <v>144437</v>
       </c>
       <c r="Q39">
-        <v>156.7</v>
+        <v>140</v>
       </c>
       <c r="R39">
-        <v>413.7</v>
+        <v>597</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -3532,43 +4903,82 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="W39">
-        <v>3642</v>
+        <v>11227</v>
       </c>
       <c r="X39">
         <v>1032</v>
       </c>
       <c r="Y39">
+        <v>244.4</v>
+      </c>
+      <c r="Z39">
+        <v>591</v>
+      </c>
+      <c r="AA39">
+        <v>57.3</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>161733</v>
+      </c>
+      <c r="AD39">
+        <v>156.7</v>
+      </c>
+      <c r="AE39">
+        <v>413.7</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>3642</v>
+      </c>
+      <c r="AK39">
+        <v>1032</v>
+      </c>
+      <c r="AL39">
         <v>665.6</v>
       </c>
-      <c r="Z39">
+      <c r="AM39">
         <v>243</v>
       </c>
-      <c r="AA39">
+      <c r="AN39">
         <v>23.5</v>
       </c>
-      <c r="AB39">
+      <c r="AO39">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:41">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
-        <v>167650</v>
+        <v>35034</v>
       </c>
       <c r="D40">
-        <v>2748.4</v>
+        <v>574.3</v>
       </c>
       <c r="E40">
-        <v>11138.5</v>
+        <v>1019.6</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -3577,37 +4987,37 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I40">
-        <v>1241</v>
+        <v>876</v>
       </c>
       <c r="J40">
-        <v>74441</v>
+        <v>5535</v>
       </c>
       <c r="K40">
         <v>61</v>
       </c>
       <c r="L40">
-        <v>4531.1</v>
+        <v>1001</v>
       </c>
       <c r="M40">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N40">
-        <v>60.7</v>
+        <v>57.4</v>
       </c>
       <c r="O40">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="P40">
-        <v>35801</v>
+        <v>10901</v>
       </c>
       <c r="Q40">
-        <v>586.9</v>
+        <v>178.7</v>
       </c>
       <c r="R40">
-        <v>2611.8</v>
+        <v>538.5</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -3616,168 +5026,246 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V40">
-        <v>254</v>
+        <v>123</v>
       </c>
       <c r="W40">
-        <v>20246</v>
+        <v>3807</v>
       </c>
       <c r="X40">
         <v>61</v>
       </c>
       <c r="Y40">
+        <v>320.6</v>
+      </c>
+      <c r="Z40">
+        <v>34</v>
+      </c>
+      <c r="AA40">
+        <v>55.7</v>
+      </c>
+      <c r="AB40">
+        <v>-0</v>
+      </c>
+      <c r="AC40">
+        <v>35801</v>
+      </c>
+      <c r="AD40">
+        <v>586.9</v>
+      </c>
+      <c r="AE40">
+        <v>2611.8</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>254</v>
+      </c>
+      <c r="AJ40">
+        <v>20246</v>
+      </c>
+      <c r="AK40">
+        <v>61</v>
+      </c>
+      <c r="AL40">
         <v>1790</v>
       </c>
-      <c r="Z40">
+      <c r="AM40">
         <v>20</v>
       </c>
-      <c r="AA40">
+      <c r="AN40">
         <v>32.8</v>
       </c>
-      <c r="AB40">
+      <c r="AO40">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:41">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C41">
-        <v>39235</v>
+        <v>12602</v>
       </c>
       <c r="D41">
-        <v>1634.8</v>
+        <v>525.1</v>
       </c>
       <c r="E41">
-        <v>4662.3</v>
+        <v>768.3</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>341.5</v>
+        <v>260</v>
       </c>
       <c r="I41">
-        <v>1227.5</v>
+        <v>844.8</v>
       </c>
       <c r="J41">
-        <v>22875</v>
+        <v>3081</v>
       </c>
       <c r="K41">
         <v>24</v>
       </c>
       <c r="L41">
-        <v>2065</v>
+        <v>741.3</v>
       </c>
       <c r="M41">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N41">
-        <v>79.2</v>
+        <v>70.8</v>
       </c>
       <c r="O41">
         <v>0.5</v>
       </c>
       <c r="P41">
-        <v>9335</v>
+        <v>26344</v>
       </c>
       <c r="Q41">
-        <v>389</v>
+        <v>1097.7</v>
       </c>
       <c r="R41">
-        <v>578.3</v>
+        <v>3978.2</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="U41">
-        <v>79</v>
+        <v>33.5</v>
       </c>
       <c r="V41">
-        <v>604</v>
+        <v>275.8</v>
       </c>
       <c r="W41">
-        <v>2432</v>
+        <v>19557</v>
       </c>
       <c r="X41">
         <v>24</v>
       </c>
       <c r="Y41">
+        <v>1386.5</v>
+      </c>
+      <c r="Z41">
+        <v>19</v>
+      </c>
+      <c r="AA41">
+        <v>79.2</v>
+      </c>
+      <c r="AB41">
+        <v>0.7</v>
+      </c>
+      <c r="AC41">
+        <v>9335</v>
+      </c>
+      <c r="AD41">
+        <v>389</v>
+      </c>
+      <c r="AE41">
+        <v>578.3</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>79</v>
+      </c>
+      <c r="AI41">
+        <v>604</v>
+      </c>
+      <c r="AJ41">
+        <v>2432</v>
+      </c>
+      <c r="AK41">
+        <v>24</v>
+      </c>
+      <c r="AL41">
         <v>718.1</v>
       </c>
-      <c r="Z41">
+      <c r="AM41">
         <v>13</v>
       </c>
-      <c r="AA41">
+      <c r="AN41">
         <v>54.2</v>
       </c>
-      <c r="AB41">
+      <c r="AO41">
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:41">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C42">
-        <v>43879</v>
+        <v>14593</v>
       </c>
       <c r="D42">
-        <v>997.2</v>
+        <v>331.7</v>
       </c>
       <c r="E42">
-        <v>2722.1</v>
+        <v>712.2</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>138.5</v>
+        <v>43.5</v>
       </c>
       <c r="I42">
-        <v>817.5</v>
+        <v>339.8</v>
       </c>
       <c r="J42">
-        <v>16598</v>
+        <v>3823</v>
       </c>
       <c r="K42">
         <v>44</v>
       </c>
       <c r="L42">
-        <v>1253.7</v>
+        <v>561.3</v>
       </c>
       <c r="M42">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N42">
-        <v>79.5</v>
+        <v>59.1</v>
       </c>
       <c r="O42">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="P42">
-        <v>46449</v>
+        <v>4334</v>
       </c>
       <c r="Q42">
-        <v>1055.7</v>
+        <v>98.5</v>
       </c>
       <c r="R42">
-        <v>5551.8</v>
+        <v>228.9</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -3786,43 +5274,82 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="V42">
-        <v>308.5</v>
+        <v>68.8</v>
       </c>
       <c r="W42">
-        <v>36948</v>
+        <v>1215</v>
       </c>
       <c r="X42">
         <v>44</v>
       </c>
       <c r="Y42">
+        <v>139.8</v>
+      </c>
+      <c r="Z42">
+        <v>31</v>
+      </c>
+      <c r="AA42">
+        <v>70.5</v>
+      </c>
+      <c r="AB42">
+        <v>0.4</v>
+      </c>
+      <c r="AC42">
+        <v>46449</v>
+      </c>
+      <c r="AD42">
+        <v>1055.7</v>
+      </c>
+      <c r="AE42">
+        <v>5551.8</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>308.5</v>
+      </c>
+      <c r="AJ42">
+        <v>36948</v>
+      </c>
+      <c r="AK42">
+        <v>44</v>
+      </c>
+      <c r="AL42">
         <v>2903.1</v>
       </c>
-      <c r="Z42">
+      <c r="AM42">
         <v>16</v>
       </c>
-      <c r="AA42">
+      <c r="AN42">
         <v>36.4</v>
       </c>
-      <c r="AB42">
+      <c r="AO42">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:41">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C43">
-        <v>338690</v>
+        <v>101558</v>
       </c>
       <c r="D43">
-        <v>935.6</v>
+        <v>280.5</v>
       </c>
       <c r="E43">
-        <v>4234.5</v>
+        <v>998</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -3831,37 +5358,37 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>315</v>
+        <v>188.8</v>
       </c>
       <c r="J43">
-        <v>52507</v>
+        <v>14101</v>
       </c>
       <c r="K43">
         <v>362</v>
       </c>
       <c r="L43">
-        <v>1764</v>
+        <v>611.8</v>
       </c>
       <c r="M43">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="N43">
-        <v>53</v>
+        <v>45.9</v>
       </c>
       <c r="O43">
         <v>-0.3</v>
       </c>
       <c r="P43">
-        <v>112296</v>
+        <v>28795</v>
       </c>
       <c r="Q43">
-        <v>310.2</v>
+        <v>79.5</v>
       </c>
       <c r="R43">
-        <v>2006.9</v>
+        <v>277.9</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -3873,40 +5400,79 @@
         <v>0</v>
       </c>
       <c r="V43">
-        <v>105</v>
+        <v>36.5</v>
       </c>
       <c r="W43">
-        <v>36858</v>
+        <v>3532</v>
       </c>
       <c r="X43">
         <v>362</v>
       </c>
       <c r="Y43">
+        <v>163.6</v>
+      </c>
+      <c r="Z43">
+        <v>176</v>
+      </c>
+      <c r="AA43">
+        <v>48.6</v>
+      </c>
+      <c r="AB43">
+        <v>-0.2</v>
+      </c>
+      <c r="AC43">
+        <v>112296</v>
+      </c>
+      <c r="AD43">
+        <v>310.2</v>
+      </c>
+      <c r="AE43">
+        <v>2006.9</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>105</v>
+      </c>
+      <c r="AJ43">
+        <v>36858</v>
+      </c>
+      <c r="AK43">
+        <v>362</v>
+      </c>
+      <c r="AL43">
         <v>1079.8</v>
       </c>
-      <c r="Z43">
+      <c r="AM43">
         <v>104</v>
       </c>
-      <c r="AA43">
+      <c r="AN43">
         <v>28.7</v>
       </c>
-      <c r="AB43">
+      <c r="AO43">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:41">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
-        <v>101724</v>
+        <v>65312</v>
       </c>
       <c r="D44">
-        <v>2422</v>
+        <v>1555</v>
       </c>
       <c r="E44">
-        <v>10682</v>
+        <v>7376.5</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -3915,37 +5481,37 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>10.5</v>
+        <v>3.5</v>
       </c>
       <c r="I44">
-        <v>981.8</v>
+        <v>488</v>
       </c>
       <c r="J44">
-        <v>68775</v>
+        <v>47571</v>
       </c>
       <c r="K44">
         <v>42</v>
       </c>
       <c r="L44">
-        <v>4238.5</v>
+        <v>2968.7</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N44">
-        <v>57.1</v>
+        <v>52.4</v>
       </c>
       <c r="O44">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="P44">
-        <v>29347</v>
+        <v>24873</v>
       </c>
       <c r="Q44">
-        <v>698.7</v>
+        <v>592.2</v>
       </c>
       <c r="R44">
-        <v>2064.3</v>
+        <v>3220.1</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -3957,63 +5523,102 @@
         <v>0</v>
       </c>
       <c r="V44">
-        <v>23.2</v>
+        <v>51.8</v>
       </c>
       <c r="W44">
-        <v>8880</v>
+        <v>20884</v>
       </c>
       <c r="X44">
         <v>42</v>
       </c>
       <c r="Y44">
+        <v>1243.6</v>
+      </c>
+      <c r="Z44">
+        <v>20</v>
+      </c>
+      <c r="AA44">
+        <v>47.6</v>
+      </c>
+      <c r="AB44">
+        <v>-0.3</v>
+      </c>
+      <c r="AC44">
+        <v>29347</v>
+      </c>
+      <c r="AD44">
+        <v>698.7</v>
+      </c>
+      <c r="AE44">
+        <v>2064.3</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>23.2</v>
+      </c>
+      <c r="AJ44">
+        <v>8880</v>
+      </c>
+      <c r="AK44">
+        <v>42</v>
+      </c>
+      <c r="AL44">
         <v>2667.9</v>
       </c>
-      <c r="Z44">
+      <c r="AM44">
         <v>11</v>
       </c>
-      <c r="AA44">
+      <c r="AN44">
         <v>26.2</v>
       </c>
-      <c r="AB44">
+      <c r="AO44">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:41">
       <c r="A45" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C45">
-        <v>6732</v>
+        <v>4991</v>
       </c>
       <c r="D45">
-        <v>2244</v>
+        <v>1663.7</v>
       </c>
       <c r="E45">
-        <v>3350.2</v>
+        <v>2497.1</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>318.5</v>
+        <v>228</v>
       </c>
       <c r="H45">
-        <v>637</v>
+        <v>456</v>
       </c>
       <c r="I45">
-        <v>3366</v>
+        <v>2495.5</v>
       </c>
       <c r="J45">
-        <v>6095</v>
+        <v>4535</v>
       </c>
       <c r="K45">
         <v>3</v>
       </c>
       <c r="L45">
-        <v>3366</v>
+        <v>2495.5</v>
       </c>
       <c r="M45">
         <v>2</v>
@@ -4022,37 +5627,37 @@
         <v>66.7</v>
       </c>
       <c r="O45">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="P45">
-        <v>1955</v>
+        <v>1735</v>
       </c>
       <c r="Q45">
-        <v>651.7</v>
+        <v>578.3</v>
       </c>
       <c r="R45">
-        <v>790.5</v>
+        <v>853.8</v>
       </c>
       <c r="S45">
         <v>0</v>
       </c>
       <c r="T45">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c r="U45">
-        <v>424</v>
+        <v>176</v>
       </c>
       <c r="V45">
-        <v>977.5</v>
+        <v>867.5</v>
       </c>
       <c r="W45">
-        <v>1531</v>
+        <v>1559</v>
       </c>
       <c r="X45">
         <v>3</v>
       </c>
       <c r="Y45">
-        <v>977.5</v>
+        <v>867.5</v>
       </c>
       <c r="Z45">
         <v>2</v>
@@ -4061,22 +5666,61 @@
         <v>66.7</v>
       </c>
       <c r="AB45">
+        <v>0.3</v>
+      </c>
+      <c r="AC45">
+        <v>1955</v>
+      </c>
+      <c r="AD45">
+        <v>651.7</v>
+      </c>
+      <c r="AE45">
+        <v>790.5</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>212</v>
+      </c>
+      <c r="AH45">
+        <v>424</v>
+      </c>
+      <c r="AI45">
+        <v>977.5</v>
+      </c>
+      <c r="AJ45">
+        <v>1531</v>
+      </c>
+      <c r="AK45">
+        <v>3</v>
+      </c>
+      <c r="AL45">
+        <v>977.5</v>
+      </c>
+      <c r="AM45">
+        <v>2</v>
+      </c>
+      <c r="AN45">
+        <v>66.7</v>
+      </c>
+      <c r="AO45">
         <v>0.7</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:41">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C46">
-        <v>7427</v>
+        <v>5830</v>
       </c>
       <c r="D46">
-        <v>675.2</v>
+        <v>530</v>
       </c>
       <c r="E46">
-        <v>1359.8</v>
+        <v>1177.9</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -4088,16 +5732,16 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>574.5</v>
+        <v>332</v>
       </c>
       <c r="J46">
-        <v>4384</v>
+        <v>3894</v>
       </c>
       <c r="K46">
         <v>11</v>
       </c>
       <c r="L46">
-        <v>1485.4</v>
+        <v>1166</v>
       </c>
       <c r="M46">
         <v>5</v>
@@ -4106,16 +5750,16 @@
         <v>45.5</v>
       </c>
       <c r="O46">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="P46">
-        <v>1883</v>
+        <v>1585</v>
       </c>
       <c r="Q46">
-        <v>171.2</v>
+        <v>144.1</v>
       </c>
       <c r="R46">
-        <v>328.2</v>
+        <v>237.2</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -4127,40 +5771,79 @@
         <v>0</v>
       </c>
       <c r="V46">
-        <v>125.5</v>
+        <v>243</v>
       </c>
       <c r="W46">
-        <v>865</v>
+        <v>589</v>
       </c>
       <c r="X46">
         <v>11</v>
       </c>
       <c r="Y46">
+        <v>317</v>
+      </c>
+      <c r="Z46">
+        <v>5</v>
+      </c>
+      <c r="AA46">
+        <v>45.5</v>
+      </c>
+      <c r="AB46">
+        <v>-0.3</v>
+      </c>
+      <c r="AC46">
+        <v>1883</v>
+      </c>
+      <c r="AD46">
+        <v>171.2</v>
+      </c>
+      <c r="AE46">
+        <v>328.2</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>125.5</v>
+      </c>
+      <c r="AJ46">
+        <v>865</v>
+      </c>
+      <c r="AK46">
+        <v>11</v>
+      </c>
+      <c r="AL46">
         <v>627.7</v>
       </c>
-      <c r="Z46">
+      <c r="AM46">
         <v>3</v>
       </c>
-      <c r="AA46">
+      <c r="AN46">
         <v>27.3</v>
       </c>
-      <c r="AB46">
+      <c r="AO46">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:41">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C47">
-        <v>178345</v>
+        <v>35529</v>
       </c>
       <c r="D47">
-        <v>1857.8</v>
+        <v>370.1</v>
       </c>
       <c r="E47">
-        <v>6861</v>
+        <v>880.9</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -4172,34 +5855,34 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>578.8</v>
+        <v>220.8</v>
       </c>
       <c r="J47">
-        <v>52506</v>
+        <v>6108</v>
       </c>
       <c r="K47">
         <v>96</v>
       </c>
       <c r="L47">
-        <v>4053.3</v>
+        <v>986.9</v>
       </c>
       <c r="M47">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N47">
-        <v>45.8</v>
+        <v>37.5</v>
       </c>
       <c r="O47">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="P47">
-        <v>35260</v>
+        <v>11021</v>
       </c>
       <c r="Q47">
-        <v>367.3</v>
+        <v>114.8</v>
       </c>
       <c r="R47">
-        <v>2249.7</v>
+        <v>343.2</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -4211,40 +5894,79 @@
         <v>0</v>
       </c>
       <c r="V47">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="W47">
-        <v>21892</v>
+        <v>2128</v>
       </c>
       <c r="X47">
         <v>96</v>
       </c>
       <c r="Y47">
+        <v>290</v>
+      </c>
+      <c r="Z47">
+        <v>38</v>
+      </c>
+      <c r="AA47">
+        <v>39.6</v>
+      </c>
+      <c r="AB47">
+        <v>-0.5</v>
+      </c>
+      <c r="AC47">
+        <v>35260</v>
+      </c>
+      <c r="AD47">
+        <v>367.3</v>
+      </c>
+      <c r="AE47">
+        <v>2249.7</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>21892</v>
+      </c>
+      <c r="AK47">
+        <v>96</v>
+      </c>
+      <c r="AL47">
         <v>1679</v>
       </c>
-      <c r="Z47">
+      <c r="AM47">
         <v>21</v>
       </c>
-      <c r="AA47">
+      <c r="AN47">
         <v>21.9</v>
       </c>
-      <c r="AB47">
+      <c r="AO47">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:41">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
-        <v>3171</v>
+        <v>2475</v>
       </c>
       <c r="D48">
-        <v>1057</v>
+        <v>825</v>
       </c>
       <c r="E48">
-        <v>1830.8</v>
+        <v>1428.9</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -4256,16 +5978,16 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>1585.5</v>
+        <v>1237.5</v>
       </c>
       <c r="J48">
-        <v>3171</v>
+        <v>2475</v>
       </c>
       <c r="K48">
         <v>3</v>
       </c>
       <c r="L48">
-        <v>3171</v>
+        <v>2475</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -4274,16 +5996,16 @@
         <v>33.3</v>
       </c>
       <c r="O48">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="P48">
-        <v>786</v>
+        <v>692</v>
       </c>
       <c r="Q48">
-        <v>262</v>
+        <v>230.7</v>
       </c>
       <c r="R48">
-        <v>453.8</v>
+        <v>399.5</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -4295,16 +6017,16 @@
         <v>0</v>
       </c>
       <c r="V48">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="W48">
-        <v>786</v>
+        <v>692</v>
       </c>
       <c r="X48">
         <v>3</v>
       </c>
       <c r="Y48">
-        <v>786</v>
+        <v>692</v>
       </c>
       <c r="Z48">
         <v>1</v>
@@ -4313,231 +6035,348 @@
         <v>33.3</v>
       </c>
       <c r="AB48">
+        <v>-0.7</v>
+      </c>
+      <c r="AC48">
+        <v>786</v>
+      </c>
+      <c r="AD48">
+        <v>262</v>
+      </c>
+      <c r="AE48">
+        <v>453.8</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>393</v>
+      </c>
+      <c r="AJ48">
+        <v>786</v>
+      </c>
+      <c r="AK48">
+        <v>3</v>
+      </c>
+      <c r="AL48">
+        <v>786</v>
+      </c>
+      <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
+        <v>33.3</v>
+      </c>
+      <c r="AO48">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:41">
       <c r="A49" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C49">
-        <v>98097</v>
+        <v>54008</v>
       </c>
       <c r="D49">
-        <v>6539.8</v>
+        <v>3600.5</v>
       </c>
       <c r="E49">
-        <v>6332.7</v>
+        <v>2995.2</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>2796.5</v>
+        <v>1463</v>
       </c>
       <c r="H49">
-        <v>4438</v>
+        <v>2910</v>
       </c>
       <c r="I49">
-        <v>7928</v>
+        <v>4927</v>
       </c>
       <c r="J49">
-        <v>18528</v>
+        <v>8682</v>
       </c>
       <c r="K49">
         <v>15</v>
       </c>
       <c r="L49">
-        <v>7006.9</v>
+        <v>4154.5</v>
       </c>
       <c r="M49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N49">
-        <v>93.3</v>
+        <v>86.7</v>
       </c>
       <c r="O49">
         <v>1</v>
       </c>
       <c r="P49">
-        <v>12287</v>
+        <v>27489</v>
       </c>
       <c r="Q49">
-        <v>819.1</v>
+        <v>1832.6</v>
       </c>
       <c r="R49">
-        <v>562.1</v>
+        <v>3234.6</v>
       </c>
       <c r="S49">
         <v>0</v>
       </c>
       <c r="T49">
-        <v>524</v>
+        <v>242.5</v>
       </c>
       <c r="U49">
-        <v>761</v>
+        <v>602</v>
       </c>
       <c r="V49">
-        <v>1090</v>
+        <v>1325.5</v>
       </c>
       <c r="W49">
-        <v>1710</v>
+        <v>9692</v>
       </c>
       <c r="X49">
         <v>15</v>
       </c>
       <c r="Y49">
+        <v>2114.5</v>
+      </c>
+      <c r="Z49">
+        <v>13</v>
+      </c>
+      <c r="AA49">
+        <v>86.7</v>
+      </c>
+      <c r="AB49">
+        <v>0.9</v>
+      </c>
+      <c r="AC49">
+        <v>12287</v>
+      </c>
+      <c r="AD49">
+        <v>819.1</v>
+      </c>
+      <c r="AE49">
+        <v>562.1</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>524</v>
+      </c>
+      <c r="AH49">
+        <v>761</v>
+      </c>
+      <c r="AI49">
+        <v>1090</v>
+      </c>
+      <c r="AJ49">
+        <v>1710</v>
+      </c>
+      <c r="AK49">
+        <v>15</v>
+      </c>
+      <c r="AL49">
         <v>1023.9</v>
       </c>
-      <c r="Z49">
+      <c r="AM49">
         <v>12</v>
       </c>
-      <c r="AA49">
+      <c r="AN49">
         <v>80</v>
       </c>
-      <c r="AB49">
+      <c r="AO49">
         <v>1.1</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:41">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C50">
-        <v>141432</v>
+        <v>61743</v>
       </c>
       <c r="D50">
-        <v>3928.7</v>
+        <v>1715.1</v>
       </c>
       <c r="E50">
-        <v>10127.4</v>
+        <v>2325.2</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>579.5</v>
+        <v>208.2</v>
       </c>
       <c r="H50">
-        <v>1632.5</v>
+        <v>1312.5</v>
       </c>
       <c r="I50">
-        <v>2886.8</v>
+        <v>2093.2</v>
       </c>
       <c r="J50">
-        <v>60386</v>
+        <v>13060</v>
       </c>
       <c r="K50">
         <v>36</v>
       </c>
       <c r="L50">
-        <v>4285.8</v>
+        <v>1991.7</v>
       </c>
       <c r="M50">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N50">
-        <v>91.7</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="O50">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P50">
-        <v>17903</v>
+        <v>56289</v>
       </c>
       <c r="Q50">
-        <v>497.3</v>
+        <v>1563.6</v>
       </c>
       <c r="R50">
-        <v>515.5</v>
+        <v>7795.3</v>
       </c>
       <c r="S50">
         <v>0</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>48.2</v>
       </c>
       <c r="U50">
-        <v>425.5</v>
+        <v>167</v>
       </c>
       <c r="V50">
-        <v>860</v>
+        <v>327.2</v>
       </c>
       <c r="W50">
-        <v>1473</v>
+        <v>46992</v>
       </c>
       <c r="X50">
         <v>36</v>
       </c>
       <c r="Y50">
+        <v>1815.8</v>
+      </c>
+      <c r="Z50">
+        <v>31</v>
+      </c>
+      <c r="AA50">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="AB50">
+        <v>0.9</v>
+      </c>
+      <c r="AC50">
+        <v>17903</v>
+      </c>
+      <c r="AD50">
+        <v>497.3</v>
+      </c>
+      <c r="AE50">
+        <v>515.5</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>425.5</v>
+      </c>
+      <c r="AI50">
+        <v>860</v>
+      </c>
+      <c r="AJ50">
+        <v>1473</v>
+      </c>
+      <c r="AK50">
+        <v>36</v>
+      </c>
+      <c r="AL50">
         <v>813.8</v>
       </c>
-      <c r="Z50">
+      <c r="AM50">
         <v>22</v>
       </c>
-      <c r="AA50">
+      <c r="AN50">
         <v>61.1</v>
       </c>
-      <c r="AB50">
+      <c r="AO50">
         <v>0.6</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:41">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C51">
-        <v>103125</v>
+        <v>41413</v>
       </c>
       <c r="D51">
-        <v>2713.8</v>
+        <v>1089.8</v>
       </c>
       <c r="E51">
-        <v>4210.2</v>
+        <v>1366.9</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>1014</v>
+        <v>435.5</v>
       </c>
       <c r="I51">
-        <v>3393.8</v>
+        <v>1901.2</v>
       </c>
       <c r="J51">
-        <v>20276</v>
+        <v>4400</v>
       </c>
       <c r="K51">
         <v>38</v>
       </c>
       <c r="L51">
-        <v>3556</v>
+        <v>1656.5</v>
       </c>
       <c r="M51">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N51">
-        <v>76.3</v>
+        <v>65.8</v>
       </c>
       <c r="O51">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="P51">
-        <v>21047</v>
+        <v>10308</v>
       </c>
       <c r="Q51">
-        <v>553.9</v>
+        <v>271.3</v>
       </c>
       <c r="R51">
-        <v>1066.4</v>
+        <v>415.8</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -4546,147 +6385,225 @@
         <v>0</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="V51">
-        <v>829.8</v>
+        <v>382</v>
       </c>
       <c r="W51">
-        <v>5316</v>
+        <v>1707</v>
       </c>
       <c r="X51">
         <v>38</v>
       </c>
       <c r="Y51">
+        <v>412.3</v>
+      </c>
+      <c r="Z51">
+        <v>25</v>
+      </c>
+      <c r="AA51">
+        <v>65.8</v>
+      </c>
+      <c r="AB51">
+        <v>0.3</v>
+      </c>
+      <c r="AC51">
+        <v>21047</v>
+      </c>
+      <c r="AD51">
+        <v>553.9</v>
+      </c>
+      <c r="AE51">
+        <v>1066.4</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>829.8</v>
+      </c>
+      <c r="AJ51">
+        <v>5316</v>
+      </c>
+      <c r="AK51">
+        <v>38</v>
+      </c>
+      <c r="AL51">
         <v>1315.4</v>
       </c>
-      <c r="Z51">
+      <c r="AM51">
         <v>16</v>
       </c>
-      <c r="AA51">
+      <c r="AN51">
         <v>42.1</v>
       </c>
-      <c r="AB51">
+      <c r="AO51">
         <v>-0</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:41">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
-        <v>15810</v>
+        <v>2811</v>
       </c>
       <c r="D52">
-        <v>5270</v>
+        <v>937</v>
       </c>
       <c r="E52">
-        <v>5994.5</v>
+        <v>961.4</v>
       </c>
       <c r="F52">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>1843.5</v>
+        <v>445</v>
       </c>
       <c r="H52">
-        <v>2687</v>
+        <v>890</v>
       </c>
       <c r="I52">
-        <v>7405</v>
+        <v>1405.5</v>
       </c>
       <c r="J52">
-        <v>12123</v>
+        <v>1921</v>
       </c>
       <c r="K52">
         <v>3</v>
       </c>
       <c r="L52">
-        <v>5270</v>
+        <v>1405.5</v>
       </c>
       <c r="M52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N52">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="O52">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="P52">
-        <v>350</v>
+        <v>870</v>
       </c>
       <c r="Q52">
-        <v>116.7</v>
+        <v>290</v>
       </c>
       <c r="R52">
-        <v>202.1</v>
+        <v>412.3</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="V52">
-        <v>175</v>
+        <v>435</v>
       </c>
       <c r="W52">
-        <v>350</v>
+        <v>762</v>
       </c>
       <c r="X52">
         <v>3</v>
       </c>
       <c r="Y52">
+        <v>435</v>
+      </c>
+      <c r="Z52">
+        <v>2</v>
+      </c>
+      <c r="AA52">
+        <v>66.7</v>
+      </c>
+      <c r="AB52">
+        <v>0.3</v>
+      </c>
+      <c r="AC52">
         <v>350</v>
       </c>
-      <c r="Z52">
+      <c r="AD52">
+        <v>116.7</v>
+      </c>
+      <c r="AE52">
+        <v>202.1</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>175</v>
+      </c>
+      <c r="AJ52">
+        <v>350</v>
+      </c>
+      <c r="AK52">
+        <v>3</v>
+      </c>
+      <c r="AL52">
+        <v>350</v>
+      </c>
+      <c r="AM52">
         <v>1</v>
       </c>
-      <c r="AA52">
+      <c r="AN52">
         <v>33.3</v>
       </c>
-      <c r="AB52">
+      <c r="AO52">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:41">
       <c r="A53" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C53">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="D53">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="F53">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="G53">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="H53">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="I53">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="J53">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="L53">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="M53">
         <v>1</v>
@@ -4695,34 +6612,34 @@
         <v>100</v>
       </c>
       <c r="O53">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="P53">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="Q53">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="S53">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="T53">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="U53">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="V53">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="W53">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="X53">
         <v>1</v>
       </c>
       <c r="Y53">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="Z53">
         <v>1</v>
@@ -4731,40 +6648,76 @@
         <v>100</v>
       </c>
       <c r="AB53">
+        <v>1.3</v>
+      </c>
+      <c r="AC53">
+        <v>208</v>
+      </c>
+      <c r="AD53">
+        <v>208</v>
+      </c>
+      <c r="AF53">
+        <v>208</v>
+      </c>
+      <c r="AG53">
+        <v>208</v>
+      </c>
+      <c r="AH53">
+        <v>208</v>
+      </c>
+      <c r="AI53">
+        <v>208</v>
+      </c>
+      <c r="AJ53">
+        <v>208</v>
+      </c>
+      <c r="AK53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <v>208</v>
+      </c>
+      <c r="AM53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
+        <v>100</v>
+      </c>
+      <c r="AO53">
         <v>1.7</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:41">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C54">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D54">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F54">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G54">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H54">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I54">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J54">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M54">
         <v>1</v>
@@ -4773,55 +6726,91 @@
         <v>100</v>
       </c>
       <c r="O54">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X54">
         <v>1</v>
       </c>
+      <c r="Y54">
+        <v>5</v>
+      </c>
       <c r="Z54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA54">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB54">
+        <v>1.3</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:41">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C55">
-        <v>57837</v>
+        <v>18552</v>
       </c>
       <c r="D55">
-        <v>1180.3</v>
+        <v>378.6</v>
       </c>
       <c r="E55">
-        <v>4085</v>
+        <v>1058.1</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -4833,34 +6822,34 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="J55">
-        <v>26102</v>
+        <v>4946</v>
       </c>
       <c r="K55">
         <v>49</v>
       </c>
       <c r="L55">
-        <v>2891.8</v>
+        <v>1030.7</v>
       </c>
       <c r="M55">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N55">
-        <v>40.8</v>
+        <v>36.7</v>
       </c>
       <c r="O55">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="P55">
-        <v>7018</v>
+        <v>2441</v>
       </c>
       <c r="Q55">
-        <v>143.2</v>
+        <v>49.8</v>
       </c>
       <c r="R55">
-        <v>361.6</v>
+        <v>135.2</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -4872,40 +6861,79 @@
         <v>0</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W55">
-        <v>1735</v>
+        <v>648</v>
       </c>
       <c r="X55">
         <v>49</v>
       </c>
       <c r="Y55">
+        <v>152.6</v>
+      </c>
+      <c r="Z55">
+        <v>16</v>
+      </c>
+      <c r="AA55">
+        <v>32.7</v>
+      </c>
+      <c r="AB55">
+        <v>-0.7</v>
+      </c>
+      <c r="AC55">
+        <v>7018</v>
+      </c>
+      <c r="AD55">
+        <v>143.2</v>
+      </c>
+      <c r="AE55">
+        <v>361.6</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
+        <v>1735</v>
+      </c>
+      <c r="AK55">
+        <v>49</v>
+      </c>
+      <c r="AL55">
         <v>584.8</v>
       </c>
-      <c r="Z55">
+      <c r="AM55">
         <v>12</v>
       </c>
-      <c r="AA55">
+      <c r="AN55">
         <v>24.5</v>
       </c>
-      <c r="AB55">
+      <c r="AO55">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:41">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
-        <v>1891</v>
+        <v>1557</v>
       </c>
       <c r="D56">
-        <v>472.8</v>
+        <v>389.2</v>
       </c>
       <c r="E56">
-        <v>640.6</v>
+        <v>504.8</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -4914,19 +6942,19 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>267.5</v>
+        <v>248.5</v>
       </c>
       <c r="I56">
-        <v>740.2</v>
+        <v>637.8</v>
       </c>
       <c r="J56">
-        <v>1356</v>
+        <v>1060</v>
       </c>
       <c r="K56">
         <v>4</v>
       </c>
       <c r="L56">
-        <v>945.5</v>
+        <v>778.5</v>
       </c>
       <c r="M56">
         <v>2</v>
@@ -4935,16 +6963,16 @@
         <v>50</v>
       </c>
       <c r="O56">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>84.5</v>
       </c>
       <c r="R56">
-        <v>0</v>
+        <v>144.8</v>
       </c>
       <c r="S56">
         <v>0</v>
@@ -4953,31 +6981,71 @@
         <v>0</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>103.5</v>
       </c>
       <c r="W56">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="X56">
         <v>4</v>
       </c>
+      <c r="Y56">
+        <v>169</v>
+      </c>
       <c r="Z56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA56">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB56">
+        <v>-0.2</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>4</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
         <v>-1.3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="P1:AB1"/>
+    <mergeCell ref="AC1:AO1"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A15:A18"/>

--- a/data/analysis/social_media_analytics/pivot_tables/governance-size/museum_activity_groups__var2-governance-size.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/governance-size/museum_activity_groups__var2-governance-size.xlsx
@@ -741,43 +741,40 @@
         <v>-1.7</v>
       </c>
       <c r="AC4">
-        <v>4826</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>1608.7</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>1394.1</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>1181</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>2362</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>2413</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>2464</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <v>3</v>
       </c>
-      <c r="AL4">
-        <v>2413</v>
-      </c>
       <c r="AM4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>66.7</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.7</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -788,31 +785,31 @@
         <v>32</v>
       </c>
       <c r="C5">
-        <v>1171</v>
+        <v>1277</v>
       </c>
       <c r="D5">
-        <v>1171</v>
+        <v>1277</v>
       </c>
       <c r="F5">
-        <v>1171</v>
+        <v>1277</v>
       </c>
       <c r="G5">
-        <v>1171</v>
+        <v>1277</v>
       </c>
       <c r="H5">
-        <v>1171</v>
+        <v>1277</v>
       </c>
       <c r="I5">
-        <v>1171</v>
+        <v>1277</v>
       </c>
       <c r="J5">
-        <v>1171</v>
+        <v>1277</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1171</v>
+        <v>1277</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -824,31 +821,31 @@
         <v>1.4</v>
       </c>
       <c r="P5">
-        <v>847</v>
+        <v>978</v>
       </c>
       <c r="Q5">
-        <v>847</v>
+        <v>978</v>
       </c>
       <c r="S5">
-        <v>847</v>
+        <v>978</v>
       </c>
       <c r="T5">
-        <v>847</v>
+        <v>978</v>
       </c>
       <c r="U5">
-        <v>847</v>
+        <v>978</v>
       </c>
       <c r="V5">
-        <v>847</v>
+        <v>978</v>
       </c>
       <c r="W5">
-        <v>847</v>
+        <v>978</v>
       </c>
       <c r="X5">
         <v>1</v>
       </c>
       <c r="Y5">
-        <v>847</v>
+        <v>978</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -857,34 +854,34 @@
         <v>100</v>
       </c>
       <c r="AB5">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AC5">
-        <v>1060</v>
+        <v>1201</v>
       </c>
       <c r="AD5">
-        <v>1060</v>
+        <v>1201</v>
       </c>
       <c r="AF5">
-        <v>1060</v>
+        <v>1201</v>
       </c>
       <c r="AG5">
-        <v>1060</v>
+        <v>1201</v>
       </c>
       <c r="AH5">
-        <v>1060</v>
+        <v>1201</v>
       </c>
       <c r="AI5">
-        <v>1060</v>
+        <v>1201</v>
       </c>
       <c r="AJ5">
-        <v>1060</v>
+        <v>1201</v>
       </c>
       <c r="AK5">
         <v>1</v>
       </c>
       <c r="AL5">
-        <v>1060</v>
+        <v>1201</v>
       </c>
       <c r="AM5">
         <v>1</v>
@@ -893,7 +890,7 @@
         <v>100</v>
       </c>
       <c r="AO5">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -902,34 +899,34 @@
         <v>33</v>
       </c>
       <c r="C6">
-        <v>299002</v>
+        <v>354659</v>
       </c>
       <c r="D6">
-        <v>1834.4</v>
+        <v>2175.8</v>
       </c>
       <c r="E6">
-        <v>2641.3</v>
+        <v>3131.2</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>344</v>
+        <v>402</v>
       </c>
       <c r="H6">
-        <v>1085</v>
+        <v>1327</v>
       </c>
       <c r="I6">
-        <v>2309.5</v>
+        <v>2797</v>
       </c>
       <c r="J6">
-        <v>19900</v>
+        <v>24791</v>
       </c>
       <c r="K6">
         <v>163</v>
       </c>
       <c r="L6">
-        <v>2214.8</v>
+        <v>2627.1</v>
       </c>
       <c r="M6">
         <v>135</v>
@@ -938,37 +935,37 @@
         <v>82.8</v>
       </c>
       <c r="O6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="P6">
-        <v>94228</v>
+        <v>108078</v>
       </c>
       <c r="Q6">
-        <v>578.1</v>
+        <v>663.1</v>
       </c>
       <c r="R6">
-        <v>1274.7</v>
+        <v>1389.3</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="U6">
-        <v>238</v>
+        <v>297</v>
       </c>
       <c r="V6">
-        <v>593</v>
+        <v>658</v>
       </c>
       <c r="W6">
-        <v>12827</v>
+        <v>13652</v>
       </c>
       <c r="X6">
         <v>163</v>
       </c>
       <c r="Y6">
-        <v>698</v>
+        <v>800.6</v>
       </c>
       <c r="Z6">
         <v>135</v>
@@ -980,40 +977,40 @@
         <v>0.8</v>
       </c>
       <c r="AC6">
-        <v>87287</v>
+        <v>131621</v>
       </c>
       <c r="AD6">
-        <v>535.5</v>
+        <v>807.5</v>
       </c>
       <c r="AE6">
-        <v>583.8</v>
+        <v>837</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="AH6">
-        <v>461</v>
+        <v>640</v>
       </c>
       <c r="AI6">
-        <v>946</v>
+        <v>1218</v>
       </c>
       <c r="AJ6">
-        <v>3210</v>
+        <v>6193</v>
       </c>
       <c r="AK6">
         <v>163</v>
       </c>
       <c r="AL6">
-        <v>890.7</v>
+        <v>997.1</v>
       </c>
       <c r="AM6">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="AN6">
-        <v>60.1</v>
+        <v>81</v>
       </c>
       <c r="AO6">
         <v>0.5</v>
@@ -1025,13 +1022,13 @@
         <v>34</v>
       </c>
       <c r="C7">
-        <v>263564</v>
+        <v>304224</v>
       </c>
       <c r="D7">
-        <v>750.9</v>
+        <v>866.7</v>
       </c>
       <c r="E7">
-        <v>1304</v>
+        <v>1709.4</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1040,37 +1037,37 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="I7">
-        <v>1009.5</v>
+        <v>1163</v>
       </c>
       <c r="J7">
-        <v>14888</v>
+        <v>22972</v>
       </c>
       <c r="K7">
         <v>351</v>
       </c>
       <c r="L7">
-        <v>1171.4</v>
+        <v>1389.2</v>
       </c>
       <c r="M7">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="N7">
-        <v>64.09999999999999</v>
+        <v>62.4</v>
       </c>
       <c r="O7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P7">
-        <v>61830</v>
+        <v>74129</v>
       </c>
       <c r="Q7">
-        <v>176.2</v>
+        <v>211.2</v>
       </c>
       <c r="R7">
-        <v>642.8</v>
+        <v>1015.8</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1079,37 +1076,37 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="V7">
-        <v>141.5</v>
+        <v>156</v>
       </c>
       <c r="W7">
-        <v>10421</v>
+        <v>17700</v>
       </c>
       <c r="X7">
         <v>351</v>
       </c>
       <c r="Y7">
-        <v>271.2</v>
+        <v>332.4</v>
       </c>
       <c r="Z7">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AA7">
-        <v>65</v>
+        <v>63.5</v>
       </c>
       <c r="AB7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AC7">
-        <v>197933</v>
+        <v>219719</v>
       </c>
       <c r="AD7">
-        <v>563.9</v>
+        <v>626</v>
       </c>
       <c r="AE7">
-        <v>1300.8</v>
+        <v>884.4</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1118,28 +1115,28 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="AI7">
-        <v>676.5</v>
+        <v>978</v>
       </c>
       <c r="AJ7">
-        <v>13336</v>
+        <v>8295</v>
       </c>
       <c r="AK7">
         <v>351</v>
       </c>
       <c r="AL7">
-        <v>1319.6</v>
+        <v>927.1</v>
       </c>
       <c r="AM7">
-        <v>150</v>
+        <v>237</v>
       </c>
       <c r="AN7">
-        <v>42.7</v>
+        <v>67.5</v>
       </c>
       <c r="AO7">
-        <v>-0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1148,13 +1145,13 @@
         <v>31</v>
       </c>
       <c r="C8">
-        <v>105031</v>
+        <v>122995</v>
       </c>
       <c r="D8">
-        <v>544.2</v>
+        <v>637.3</v>
       </c>
       <c r="E8">
-        <v>1115.4</v>
+        <v>1322.1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1166,34 +1163,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>546</v>
+        <v>612</v>
       </c>
       <c r="J8">
-        <v>7295</v>
+        <v>8046</v>
       </c>
       <c r="K8">
         <v>193</v>
       </c>
       <c r="L8">
-        <v>1167</v>
+        <v>1397.7</v>
       </c>
       <c r="M8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N8">
-        <v>46.6</v>
+        <v>45.6</v>
       </c>
       <c r="O8">
         <v>-0.3</v>
       </c>
       <c r="P8">
-        <v>38857</v>
+        <v>44121</v>
       </c>
       <c r="Q8">
-        <v>201.3</v>
+        <v>228.6</v>
       </c>
       <c r="R8">
-        <v>748.5</v>
+        <v>840.9</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1205,34 +1202,34 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="W8">
-        <v>6137</v>
+        <v>6901</v>
       </c>
       <c r="X8">
         <v>193</v>
       </c>
       <c r="Y8">
-        <v>436.6</v>
+        <v>501.4</v>
       </c>
       <c r="Z8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AA8">
-        <v>46.1</v>
+        <v>45.6</v>
       </c>
       <c r="AB8">
         <v>-0.3</v>
       </c>
       <c r="AC8">
-        <v>99762</v>
+        <v>66371</v>
       </c>
       <c r="AD8">
-        <v>516.9</v>
+        <v>343.9</v>
       </c>
       <c r="AE8">
-        <v>1467.6</v>
+        <v>616.6</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1244,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>262</v>
+        <v>452</v>
       </c>
       <c r="AJ8">
-        <v>13336</v>
+        <v>3458</v>
       </c>
       <c r="AK8">
         <v>193</v>
       </c>
       <c r="AL8">
-        <v>1690.9</v>
+        <v>691.4</v>
       </c>
       <c r="AM8">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="AN8">
-        <v>30.6</v>
+        <v>49.7</v>
       </c>
       <c r="AO8">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1271,13 +1268,13 @@
         <v>35</v>
       </c>
       <c r="C9">
-        <v>7844</v>
+        <v>9994</v>
       </c>
       <c r="D9">
-        <v>784.4</v>
+        <v>999.4</v>
       </c>
       <c r="E9">
-        <v>1393.4</v>
+        <v>1764.9</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1289,16 +1286,16 @@
         <v>40</v>
       </c>
       <c r="I9">
-        <v>664.8</v>
+        <v>876.5</v>
       </c>
       <c r="J9">
-        <v>3881</v>
+        <v>4812</v>
       </c>
       <c r="K9">
         <v>10</v>
       </c>
       <c r="L9">
-        <v>1568.8</v>
+        <v>1998.8</v>
       </c>
       <c r="M9">
         <v>5</v>
@@ -1310,13 +1307,13 @@
         <v>-0.2</v>
       </c>
       <c r="P9">
-        <v>1535</v>
+        <v>1635</v>
       </c>
       <c r="Q9">
-        <v>153.5</v>
+        <v>163.5</v>
       </c>
       <c r="R9">
-        <v>328.5</v>
+        <v>337.5</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1325,19 +1322,19 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="V9">
-        <v>170.2</v>
+        <v>193.8</v>
       </c>
       <c r="W9">
-        <v>1050</v>
+        <v>1074</v>
       </c>
       <c r="X9">
         <v>10</v>
       </c>
       <c r="Y9">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="Z9">
         <v>5</v>
@@ -1349,13 +1346,13 @@
         <v>-0.2</v>
       </c>
       <c r="AC9">
-        <v>6797</v>
+        <v>8540</v>
       </c>
       <c r="AD9">
-        <v>679.7</v>
+        <v>854</v>
       </c>
       <c r="AE9">
-        <v>1022.3</v>
+        <v>1261.3</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1367,16 +1364,16 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>1103.2</v>
+        <v>1416.5</v>
       </c>
       <c r="AJ9">
-        <v>2866</v>
+        <v>3450</v>
       </c>
       <c r="AK9">
         <v>10</v>
       </c>
       <c r="AL9">
-        <v>1699.2</v>
+        <v>2135</v>
       </c>
       <c r="AM9">
         <v>4</v>
@@ -1385,7 +1382,7 @@
         <v>40</v>
       </c>
       <c r="AO9">
-        <v>-0.1</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1396,13 +1393,13 @@
         <v>32</v>
       </c>
       <c r="C10">
-        <v>29893</v>
+        <v>35828</v>
       </c>
       <c r="D10">
-        <v>3321.4</v>
+        <v>3980.9</v>
       </c>
       <c r="E10">
-        <v>3484</v>
+        <v>4024.3</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1411,19 +1408,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2940</v>
+        <v>4526</v>
       </c>
       <c r="I10">
-        <v>4487</v>
+        <v>5040</v>
       </c>
       <c r="J10">
-        <v>10793</v>
+        <v>12666</v>
       </c>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10">
-        <v>4982.2</v>
+        <v>5971.3</v>
       </c>
       <c r="M10">
         <v>6</v>
@@ -1432,37 +1429,37 @@
         <v>66.7</v>
       </c>
       <c r="O10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="P10">
-        <v>49228</v>
+        <v>59745</v>
       </c>
       <c r="Q10">
-        <v>5469.8</v>
+        <v>6638.3</v>
       </c>
       <c r="R10">
-        <v>6263.5</v>
+        <v>7196.7</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="U10">
-        <v>3095</v>
+        <v>4132</v>
       </c>
       <c r="V10">
-        <v>7474</v>
+        <v>10616</v>
       </c>
       <c r="W10">
-        <v>18016</v>
+        <v>20340</v>
       </c>
       <c r="X10">
         <v>9</v>
       </c>
       <c r="Y10">
-        <v>7032.6</v>
+        <v>8535</v>
       </c>
       <c r="Z10">
         <v>7</v>
@@ -1474,13 +1471,13 @@
         <v>0.7</v>
       </c>
       <c r="AC10">
-        <v>9962</v>
+        <v>11781</v>
       </c>
       <c r="AD10">
-        <v>1106.9</v>
+        <v>1309</v>
       </c>
       <c r="AE10">
-        <v>1019.7</v>
+        <v>1182.4</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1489,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>992</v>
+        <v>1231</v>
       </c>
       <c r="AI10">
-        <v>1520</v>
+        <v>1962</v>
       </c>
       <c r="AJ10">
-        <v>2991</v>
+        <v>3465</v>
       </c>
       <c r="AK10">
         <v>9</v>
       </c>
       <c r="AL10">
-        <v>1660.3</v>
+        <v>1963.5</v>
       </c>
       <c r="AM10">
         <v>6</v>
@@ -1510,7 +1507,7 @@
         <v>66.7</v>
       </c>
       <c r="AO10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1519,121 +1516,121 @@
         <v>33</v>
       </c>
       <c r="C11">
-        <v>117978</v>
+        <v>139958</v>
       </c>
       <c r="D11">
-        <v>2359.6</v>
+        <v>2799.2</v>
       </c>
       <c r="E11">
-        <v>3789.6</v>
+        <v>4743.3</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1056.5</v>
+        <v>1225.5</v>
       </c>
       <c r="I11">
-        <v>2878</v>
+        <v>3576</v>
       </c>
       <c r="J11">
-        <v>18330</v>
+        <v>23112</v>
       </c>
       <c r="K11">
         <v>50</v>
       </c>
       <c r="L11">
-        <v>3188.6</v>
+        <v>3998.8</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N11">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="O11">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P11">
-        <v>47250</v>
+        <v>54566</v>
       </c>
       <c r="Q11">
-        <v>945</v>
+        <v>1091.3</v>
       </c>
       <c r="R11">
-        <v>1321.6</v>
+        <v>1558.5</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>15.8</v>
+        <v>1.5</v>
       </c>
       <c r="U11">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="V11">
-        <v>1119.2</v>
+        <v>1336.5</v>
       </c>
       <c r="W11">
-        <v>4715</v>
+        <v>5485</v>
       </c>
       <c r="X11">
         <v>50</v>
       </c>
       <c r="Y11">
-        <v>1211.5</v>
+        <v>1474.8</v>
       </c>
       <c r="Z11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AA11">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AB11">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AC11">
-        <v>31715</v>
+        <v>46793</v>
       </c>
       <c r="AD11">
-        <v>634.3</v>
+        <v>935.9</v>
       </c>
       <c r="AE11">
-        <v>581.2</v>
+        <v>808.8</v>
       </c>
       <c r="AF11">
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AH11">
-        <v>614.5</v>
+        <v>866.5</v>
       </c>
       <c r="AI11">
-        <v>1036.2</v>
+        <v>1578.5</v>
       </c>
       <c r="AJ11">
-        <v>1969</v>
+        <v>3033</v>
       </c>
       <c r="AK11">
         <v>50</v>
       </c>
       <c r="AL11">
-        <v>906.1</v>
+        <v>1199.8</v>
       </c>
       <c r="AM11">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AN11">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AO11">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1642,13 +1639,13 @@
         <v>34</v>
       </c>
       <c r="C12">
-        <v>1378</v>
+        <v>1801</v>
       </c>
       <c r="D12">
-        <v>229.7</v>
+        <v>300.2</v>
       </c>
       <c r="E12">
-        <v>258</v>
+        <v>339.5</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1657,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>183</v>
+        <v>253</v>
       </c>
       <c r="I12">
-        <v>440.2</v>
+        <v>533</v>
       </c>
       <c r="J12">
-        <v>547</v>
+        <v>753</v>
       </c>
       <c r="K12">
         <v>6</v>
       </c>
       <c r="L12">
-        <v>459.3</v>
+        <v>600.3</v>
       </c>
       <c r="M12">
         <v>3</v>
@@ -1681,13 +1678,13 @@
         <v>-0.2</v>
       </c>
       <c r="P12">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>31.3</v>
       </c>
       <c r="R12">
-        <v>42</v>
+        <v>51.3</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1699,16 +1696,16 @@
         <v>7</v>
       </c>
       <c r="V12">
-        <v>29.8</v>
+        <v>36.5</v>
       </c>
       <c r="W12">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="X12">
         <v>6</v>
       </c>
       <c r="Y12">
-        <v>52</v>
+        <v>62.7</v>
       </c>
       <c r="Z12">
         <v>3</v>
@@ -1720,43 +1717,43 @@
         <v>-0.2</v>
       </c>
       <c r="AC12">
-        <v>2122</v>
+        <v>2741</v>
       </c>
       <c r="AD12">
-        <v>353.7</v>
+        <v>456.8</v>
       </c>
       <c r="AE12">
-        <v>422.3</v>
+        <v>532.1</v>
       </c>
       <c r="AF12">
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH12">
-        <v>216</v>
+        <v>293.5</v>
       </c>
       <c r="AI12">
-        <v>654</v>
+        <v>800.2</v>
       </c>
       <c r="AJ12">
-        <v>962</v>
+        <v>1262</v>
       </c>
       <c r="AK12">
         <v>6</v>
       </c>
       <c r="AL12">
-        <v>707.3</v>
+        <v>685.2</v>
       </c>
       <c r="AM12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN12">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="AO12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -1765,34 +1762,34 @@
         <v>31</v>
       </c>
       <c r="C13">
-        <v>11254</v>
+        <v>12598</v>
       </c>
       <c r="D13">
-        <v>5627</v>
+        <v>6299</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>5627</v>
+        <v>6299</v>
       </c>
       <c r="G13">
-        <v>5627</v>
+        <v>6299</v>
       </c>
       <c r="H13">
-        <v>5627</v>
+        <v>6299</v>
       </c>
       <c r="I13">
-        <v>5627</v>
+        <v>6299</v>
       </c>
       <c r="J13">
-        <v>5627</v>
+        <v>6299</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
       <c r="L13">
-        <v>5627</v>
+        <v>6299</v>
       </c>
       <c r="M13">
         <v>2</v>
@@ -1804,34 +1801,34 @@
         <v>1.4</v>
       </c>
       <c r="P13">
-        <v>18391</v>
+        <v>20158</v>
       </c>
       <c r="Q13">
-        <v>9195.5</v>
+        <v>10079</v>
       </c>
       <c r="R13">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="S13">
-        <v>9195</v>
+        <v>10078</v>
       </c>
       <c r="T13">
-        <v>9195.200000000001</v>
+        <v>10078.5</v>
       </c>
       <c r="U13">
-        <v>9195.5</v>
+        <v>10079</v>
       </c>
       <c r="V13">
-        <v>9195.799999999999</v>
+        <v>10079.5</v>
       </c>
       <c r="W13">
-        <v>9196</v>
+        <v>10080</v>
       </c>
       <c r="X13">
         <v>2</v>
       </c>
       <c r="Y13">
-        <v>9195.5</v>
+        <v>10079</v>
       </c>
       <c r="Z13">
         <v>2</v>
@@ -1840,37 +1837,37 @@
         <v>100</v>
       </c>
       <c r="AB13">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AC13">
-        <v>1786</v>
+        <v>2250</v>
       </c>
       <c r="AD13">
-        <v>893</v>
+        <v>1125</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>893</v>
+        <v>1125</v>
       </c>
       <c r="AG13">
-        <v>893</v>
+        <v>1125</v>
       </c>
       <c r="AH13">
-        <v>893</v>
+        <v>1125</v>
       </c>
       <c r="AI13">
-        <v>893</v>
+        <v>1125</v>
       </c>
       <c r="AJ13">
-        <v>893</v>
+        <v>1125</v>
       </c>
       <c r="AK13">
         <v>2</v>
       </c>
       <c r="AL13">
-        <v>893</v>
+        <v>1125</v>
       </c>
       <c r="AM13">
         <v>2</v>
@@ -1879,7 +1876,7 @@
         <v>100</v>
       </c>
       <c r="AO13">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -1888,34 +1885,34 @@
         <v>35</v>
       </c>
       <c r="C14">
-        <v>4559</v>
+        <v>5017</v>
       </c>
       <c r="D14">
-        <v>2279.5</v>
+        <v>2508.5</v>
       </c>
       <c r="E14">
-        <v>2608.5</v>
+        <v>2923.9</v>
       </c>
       <c r="F14">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="G14">
-        <v>1357.2</v>
+        <v>1474.8</v>
       </c>
       <c r="H14">
-        <v>2279.5</v>
+        <v>2508.5</v>
       </c>
       <c r="I14">
-        <v>3201.8</v>
+        <v>3542.2</v>
       </c>
       <c r="J14">
-        <v>4124</v>
+        <v>4576</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>2279.5</v>
+        <v>2508.5</v>
       </c>
       <c r="M14">
         <v>2</v>
@@ -1927,34 +1924,34 @@
         <v>1.4</v>
       </c>
       <c r="P14">
-        <v>2516</v>
+        <v>2666</v>
       </c>
       <c r="Q14">
-        <v>1258</v>
+        <v>1333</v>
       </c>
       <c r="R14">
-        <v>1615</v>
+        <v>1690</v>
       </c>
       <c r="S14">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="T14">
-        <v>687</v>
+        <v>735.5</v>
       </c>
       <c r="U14">
-        <v>1258</v>
+        <v>1333</v>
       </c>
       <c r="V14">
-        <v>1829</v>
+        <v>1930.5</v>
       </c>
       <c r="W14">
-        <v>2400</v>
+        <v>2528</v>
       </c>
       <c r="X14">
         <v>2</v>
       </c>
       <c r="Y14">
-        <v>1258</v>
+        <v>1333</v>
       </c>
       <c r="Z14">
         <v>2</v>
@@ -1963,37 +1960,37 @@
         <v>100</v>
       </c>
       <c r="AB14">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AC14">
-        <v>1540</v>
+        <v>1738</v>
       </c>
       <c r="AD14">
-        <v>770</v>
+        <v>869</v>
       </c>
       <c r="AE14">
-        <v>329.5</v>
+        <v>466.7</v>
       </c>
       <c r="AF14">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AG14">
-        <v>653.5</v>
+        <v>704</v>
       </c>
       <c r="AH14">
-        <v>770</v>
+        <v>869</v>
       </c>
       <c r="AI14">
-        <v>886.5</v>
+        <v>1034</v>
       </c>
       <c r="AJ14">
-        <v>1003</v>
+        <v>1199</v>
       </c>
       <c r="AK14">
         <v>2</v>
       </c>
       <c r="AL14">
-        <v>770</v>
+        <v>869</v>
       </c>
       <c r="AM14">
         <v>2</v>
@@ -2002,7 +1999,7 @@
         <v>100</v>
       </c>
       <c r="AO14">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -2013,31 +2010,31 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="D15">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="F15">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="G15">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="H15">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="I15">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="J15">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -2049,31 +2046,31 @@
         <v>1.4</v>
       </c>
       <c r="P15">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="Q15">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="S15">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="T15">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="U15">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="V15">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="W15">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="X15">
         <v>1</v>
       </c>
       <c r="Y15">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="Z15">
         <v>1</v>
@@ -2082,34 +2079,34 @@
         <v>100</v>
       </c>
       <c r="AB15">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AC15">
-        <v>577</v>
+        <v>725</v>
       </c>
       <c r="AD15">
-        <v>577</v>
+        <v>725</v>
       </c>
       <c r="AF15">
-        <v>577</v>
+        <v>725</v>
       </c>
       <c r="AG15">
-        <v>577</v>
+        <v>725</v>
       </c>
       <c r="AH15">
-        <v>577</v>
+        <v>725</v>
       </c>
       <c r="AI15">
-        <v>577</v>
+        <v>725</v>
       </c>
       <c r="AJ15">
-        <v>577</v>
+        <v>725</v>
       </c>
       <c r="AK15">
         <v>1</v>
       </c>
       <c r="AL15">
-        <v>577</v>
+        <v>725</v>
       </c>
       <c r="AM15">
         <v>1</v>
@@ -2118,7 +2115,7 @@
         <v>100</v>
       </c>
       <c r="AO15">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2127,31 +2124,31 @@
         <v>34</v>
       </c>
       <c r="C16">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="D16">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="F16">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="G16">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="H16">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="I16">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="J16">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -2163,31 +2160,31 @@
         <v>1.4</v>
       </c>
       <c r="P16">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="Q16">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="S16">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="T16">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="U16">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="V16">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="W16">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="X16">
         <v>1</v>
       </c>
       <c r="Y16">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="Z16">
         <v>1</v>
@@ -2196,40 +2193,43 @@
         <v>100</v>
       </c>
       <c r="AB16">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AK16">
         <v>1</v>
       </c>
+      <c r="AL16">
+        <v>349</v>
+      </c>
       <c r="AM16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO16">
-        <v>-1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="AO17">
-        <v>-1.3</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -2343,34 +2343,34 @@
         <v>35</v>
       </c>
       <c r="C18">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="D18">
-        <v>816.5</v>
+        <v>870.5</v>
       </c>
       <c r="E18">
-        <v>1154.7</v>
+        <v>1231.1</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>408.2</v>
+        <v>435.2</v>
       </c>
       <c r="H18">
-        <v>816.5</v>
+        <v>870.5</v>
       </c>
       <c r="I18">
-        <v>1224.8</v>
+        <v>1305.8</v>
       </c>
       <c r="J18">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
       <c r="L18">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -2382,34 +2382,34 @@
         <v>-0.2</v>
       </c>
       <c r="P18">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="Q18">
-        <v>205.5</v>
+        <v>222</v>
       </c>
       <c r="R18">
-        <v>290.6</v>
+        <v>314</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>102.8</v>
+        <v>111</v>
       </c>
       <c r="U18">
-        <v>205.5</v>
+        <v>222</v>
       </c>
       <c r="V18">
-        <v>308.2</v>
+        <v>333</v>
       </c>
       <c r="W18">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="X18">
         <v>2</v>
       </c>
       <c r="Y18">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="Z18">
         <v>1</v>
@@ -2421,34 +2421,34 @@
         <v>-0.2</v>
       </c>
       <c r="AC18">
-        <v>675</v>
+        <v>824</v>
       </c>
       <c r="AD18">
-        <v>337.5</v>
+        <v>412</v>
       </c>
       <c r="AE18">
-        <v>477.3</v>
+        <v>582.7</v>
       </c>
       <c r="AF18">
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>168.8</v>
+        <v>206</v>
       </c>
       <c r="AH18">
-        <v>337.5</v>
+        <v>412</v>
       </c>
       <c r="AI18">
-        <v>506.2</v>
+        <v>618</v>
       </c>
       <c r="AJ18">
-        <v>675</v>
+        <v>824</v>
       </c>
       <c r="AK18">
         <v>2</v>
       </c>
       <c r="AL18">
-        <v>675</v>
+        <v>824</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -2457,7 +2457,7 @@
         <v>50</v>
       </c>
       <c r="AO18">
-        <v>0.2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -2468,13 +2468,13 @@
         <v>33</v>
       </c>
       <c r="C19">
-        <v>3145</v>
+        <v>3768</v>
       </c>
       <c r="D19">
-        <v>241.9</v>
+        <v>289.8</v>
       </c>
       <c r="E19">
-        <v>201.4</v>
+        <v>230.9</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2483,19 +2483,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="I19">
-        <v>421</v>
+        <v>501</v>
       </c>
       <c r="J19">
-        <v>533</v>
+        <v>620</v>
       </c>
       <c r="K19">
         <v>13</v>
       </c>
       <c r="L19">
-        <v>349.4</v>
+        <v>418.7</v>
       </c>
       <c r="M19">
         <v>9</v>
@@ -2507,34 +2507,34 @@
         <v>0.4</v>
       </c>
       <c r="P19">
-        <v>1506</v>
+        <v>1734</v>
       </c>
       <c r="Q19">
-        <v>115.8</v>
+        <v>133.4</v>
       </c>
       <c r="R19">
-        <v>112.5</v>
+        <v>125.3</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U19">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="V19">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="W19">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="X19">
         <v>13</v>
       </c>
       <c r="Y19">
-        <v>150.6</v>
+        <v>173.4</v>
       </c>
       <c r="Z19">
         <v>10</v>
@@ -2546,13 +2546,13 @@
         <v>0.6</v>
       </c>
       <c r="AC19">
-        <v>3304</v>
+        <v>5021</v>
       </c>
       <c r="AD19">
-        <v>254.2</v>
+        <v>386.2</v>
       </c>
       <c r="AE19">
-        <v>181.6</v>
+        <v>428.7</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2561,19 +2561,19 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="AI19">
-        <v>366</v>
+        <v>497</v>
       </c>
       <c r="AJ19">
-        <v>473</v>
+        <v>1623</v>
       </c>
       <c r="AK19">
         <v>13</v>
       </c>
       <c r="AL19">
-        <v>367.1</v>
+        <v>557.9</v>
       </c>
       <c r="AM19">
         <v>9</v>
@@ -2582,7 +2582,7 @@
         <v>69.2</v>
       </c>
       <c r="AO19">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -2591,13 +2591,13 @@
         <v>34</v>
       </c>
       <c r="C20">
-        <v>4085</v>
+        <v>4544</v>
       </c>
       <c r="D20">
-        <v>151.3</v>
+        <v>168.3</v>
       </c>
       <c r="E20">
-        <v>424.8</v>
+        <v>473.5</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2609,34 +2609,34 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>71</v>
+        <v>47.5</v>
       </c>
       <c r="J20">
-        <v>2032</v>
+        <v>2157</v>
       </c>
       <c r="K20">
         <v>27</v>
       </c>
       <c r="L20">
-        <v>453.9</v>
+        <v>568</v>
       </c>
       <c r="M20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N20">
-        <v>33.3</v>
+        <v>29.6</v>
       </c>
       <c r="O20">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="P20">
-        <v>1684</v>
+        <v>1740</v>
       </c>
       <c r="Q20">
-        <v>62.4</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="R20">
-        <v>167.2</v>
+        <v>182.1</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2648,34 +2648,34 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="W20">
-        <v>730</v>
+        <v>776</v>
       </c>
       <c r="X20">
         <v>27</v>
       </c>
       <c r="Y20">
-        <v>168.4</v>
+        <v>193.3</v>
       </c>
       <c r="Z20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA20">
-        <v>37</v>
+        <v>33.3</v>
       </c>
       <c r="AB20">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="AC20">
-        <v>1929</v>
+        <v>5604</v>
       </c>
       <c r="AD20">
-        <v>71.40000000000001</v>
+        <v>207.6</v>
       </c>
       <c r="AE20">
-        <v>172.2</v>
+        <v>336.7</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2684,28 +2684,28 @@
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="AI20">
-        <v>21.5</v>
+        <v>208.5</v>
       </c>
       <c r="AJ20">
-        <v>727</v>
+        <v>1506</v>
       </c>
       <c r="AK20">
         <v>27</v>
       </c>
       <c r="AL20">
-        <v>275.6</v>
+        <v>329.6</v>
       </c>
       <c r="AM20">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AN20">
-        <v>25.9</v>
+        <v>63</v>
       </c>
       <c r="AO20">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -2714,13 +2714,13 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>573</v>
+        <v>639</v>
       </c>
       <c r="D21">
-        <v>52.1</v>
+        <v>58.1</v>
       </c>
       <c r="E21">
-        <v>123.2</v>
+        <v>140</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2735,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="K21">
         <v>11</v>
       </c>
       <c r="L21">
-        <v>286.5</v>
+        <v>319.5</v>
       </c>
       <c r="M21">
         <v>2</v>
@@ -2753,13 +2753,13 @@
         <v>-1.2</v>
       </c>
       <c r="P21">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="Q21">
-        <v>20.4</v>
+        <v>24.4</v>
       </c>
       <c r="R21">
-        <v>51.8</v>
+        <v>65.2</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2774,13 +2774,13 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="X21">
         <v>11</v>
       </c>
       <c r="Y21">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="Z21">
         <v>2</v>
@@ -2792,13 +2792,13 @@
         <v>-1.2</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2813,19 +2813,22 @@
         <v>0</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="AK21">
         <v>11</v>
       </c>
+      <c r="AL21">
+        <v>195.5</v>
+      </c>
       <c r="AM21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>18.2</v>
       </c>
       <c r="AO21">
-        <v>-1.3</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="22" spans="1:41">
@@ -2900,37 +2903,40 @@
         <v>-1.7</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK22">
         <v>1</v>
       </c>
+      <c r="AL22">
+        <v>55</v>
+      </c>
       <c r="AM22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO22">
-        <v>-1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="23" spans="1:41">
@@ -3007,31 +3013,31 @@
         <v>-1.7</v>
       </c>
       <c r="AC23">
-        <v>395</v>
+        <v>490</v>
       </c>
       <c r="AD23">
-        <v>395</v>
+        <v>490</v>
       </c>
       <c r="AF23">
-        <v>395</v>
+        <v>490</v>
       </c>
       <c r="AG23">
-        <v>395</v>
+        <v>490</v>
       </c>
       <c r="AH23">
-        <v>395</v>
+        <v>490</v>
       </c>
       <c r="AI23">
-        <v>395</v>
+        <v>490</v>
       </c>
       <c r="AJ23">
-        <v>395</v>
+        <v>490</v>
       </c>
       <c r="AK23">
         <v>1</v>
       </c>
       <c r="AL23">
-        <v>395</v>
+        <v>490</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -3040,7 +3046,7 @@
         <v>100</v>
       </c>
       <c r="AO23">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -3115,37 +3121,40 @@
         <v>-1.7</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK24">
         <v>1</v>
       </c>
+      <c r="AL24">
+        <v>70</v>
+      </c>
       <c r="AM24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO24">
-        <v>-1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="25" spans="1:41">
@@ -3259,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="AO25">
-        <v>-1.3</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="26" spans="1:41">
@@ -3340,13 +3349,13 @@
         <v>-1.7</v>
       </c>
       <c r="AC26">
-        <v>277</v>
+        <v>2519</v>
       </c>
       <c r="AD26">
-        <v>39.6</v>
+        <v>359.9</v>
       </c>
       <c r="AE26">
-        <v>104.7</v>
+        <v>802</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3358,25 +3367,25 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>183.5</v>
       </c>
       <c r="AJ26">
-        <v>277</v>
+        <v>2152</v>
       </c>
       <c r="AK26">
         <v>7</v>
       </c>
       <c r="AL26">
-        <v>277</v>
+        <v>1259.5</v>
       </c>
       <c r="AM26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN26">
-        <v>14.3</v>
+        <v>28.6</v>
       </c>
       <c r="AO26">
-        <v>-0.9</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="27" spans="1:41">
@@ -3385,13 +3394,13 @@
         <v>35</v>
       </c>
       <c r="C27">
-        <v>650</v>
+        <v>739</v>
       </c>
       <c r="D27">
-        <v>92.90000000000001</v>
+        <v>105.6</v>
       </c>
       <c r="E27">
-        <v>245.7</v>
+        <v>279.3</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3406,13 +3415,13 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>650</v>
+        <v>739</v>
       </c>
       <c r="K27">
         <v>7</v>
       </c>
       <c r="L27">
-        <v>650</v>
+        <v>739</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -3424,13 +3433,13 @@
         <v>-1.3</v>
       </c>
       <c r="P27">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Q27">
-        <v>12.3</v>
+        <v>12.9</v>
       </c>
       <c r="R27">
-        <v>32.5</v>
+        <v>34</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3445,13 +3454,13 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="X27">
         <v>7</v>
       </c>
       <c r="Y27">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Z27">
         <v>1</v>
@@ -3496,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="AO27">
-        <v>-1.3</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="28" spans="1:41">
@@ -3507,34 +3516,34 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>61194</v>
+        <v>71283</v>
       </c>
       <c r="D28">
-        <v>672.5</v>
+        <v>783.3</v>
       </c>
       <c r="E28">
-        <v>700.1</v>
+        <v>785.3</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>296</v>
+        <v>392</v>
       </c>
       <c r="H28">
-        <v>523</v>
+        <v>627</v>
       </c>
       <c r="I28">
-        <v>885</v>
+        <v>1064</v>
       </c>
       <c r="J28">
-        <v>5055</v>
+        <v>5409</v>
       </c>
       <c r="K28">
         <v>91</v>
       </c>
       <c r="L28">
-        <v>764.9</v>
+        <v>891</v>
       </c>
       <c r="M28">
         <v>80</v>
@@ -3546,34 +3555,34 @@
         <v>1</v>
       </c>
       <c r="P28">
-        <v>20898</v>
+        <v>23680</v>
       </c>
       <c r="Q28">
-        <v>229.6</v>
+        <v>260.2</v>
       </c>
       <c r="R28">
-        <v>275</v>
+        <v>311.2</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>81.5</v>
+        <v>92.5</v>
       </c>
       <c r="U28">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="V28">
-        <v>286</v>
+        <v>293.5</v>
       </c>
       <c r="W28">
-        <v>1968</v>
+        <v>2244</v>
       </c>
       <c r="X28">
         <v>91</v>
       </c>
       <c r="Y28">
-        <v>254.9</v>
+        <v>288.8</v>
       </c>
       <c r="Z28">
         <v>82</v>
@@ -3582,46 +3591,46 @@
         <v>90.09999999999999</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AC28">
-        <v>32567</v>
+        <v>51805</v>
       </c>
       <c r="AD28">
-        <v>357.9</v>
+        <v>569.3</v>
       </c>
       <c r="AE28">
-        <v>326.7</v>
+        <v>333.2</v>
       </c>
       <c r="AF28">
         <v>0</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="AH28">
-        <v>326</v>
+        <v>550</v>
       </c>
       <c r="AI28">
-        <v>608.5</v>
+        <v>807</v>
       </c>
       <c r="AJ28">
-        <v>1253</v>
+        <v>1703</v>
       </c>
       <c r="AK28">
         <v>91</v>
       </c>
       <c r="AL28">
-        <v>533.9</v>
+        <v>616.7</v>
       </c>
       <c r="AM28">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="AN28">
-        <v>67</v>
+        <v>92.3</v>
       </c>
       <c r="AO28">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="29" spans="1:41">
@@ -3630,13 +3639,13 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>14679</v>
+        <v>16847</v>
       </c>
       <c r="D29">
-        <v>225.8</v>
+        <v>259.2</v>
       </c>
       <c r="E29">
-        <v>615.2</v>
+        <v>674.7</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3645,37 +3654,37 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="J29">
-        <v>4429</v>
+        <v>4741</v>
       </c>
       <c r="K29">
         <v>65</v>
       </c>
       <c r="L29">
-        <v>431.7</v>
+        <v>510.5</v>
       </c>
       <c r="M29">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N29">
-        <v>52.3</v>
+        <v>50.8</v>
       </c>
       <c r="O29">
         <v>-0.1</v>
       </c>
       <c r="P29">
-        <v>4823</v>
+        <v>5393</v>
       </c>
       <c r="Q29">
-        <v>74.2</v>
+        <v>83</v>
       </c>
       <c r="R29">
-        <v>362.7</v>
+        <v>393.7</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -3684,37 +3693,37 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V29">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="W29">
-        <v>2905</v>
+        <v>3145</v>
       </c>
       <c r="X29">
         <v>65</v>
       </c>
       <c r="Y29">
-        <v>137.8</v>
+        <v>158.6</v>
       </c>
       <c r="Z29">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA29">
-        <v>53.8</v>
+        <v>52.3</v>
       </c>
       <c r="AB29">
         <v>-0.1</v>
       </c>
       <c r="AC29">
-        <v>7874</v>
+        <v>18353</v>
       </c>
       <c r="AD29">
-        <v>121.1</v>
+        <v>282.4</v>
       </c>
       <c r="AE29">
-        <v>213</v>
+        <v>354.8</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3723,28 +3732,28 @@
         <v>0</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AI29">
-        <v>186</v>
+        <v>432</v>
       </c>
       <c r="AJ29">
-        <v>714</v>
+        <v>1689</v>
       </c>
       <c r="AK29">
         <v>65</v>
       </c>
       <c r="AL29">
-        <v>375</v>
+        <v>390.5</v>
       </c>
       <c r="AM29">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="AN29">
-        <v>32.3</v>
+        <v>72.3</v>
       </c>
       <c r="AO29">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="30" spans="1:41">
@@ -3753,13 +3762,13 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>10521</v>
+        <v>13021</v>
       </c>
       <c r="D30">
-        <v>420.8</v>
+        <v>520.8</v>
       </c>
       <c r="E30">
-        <v>1746.3</v>
+        <v>2185.2</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3771,16 +3780,16 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="J30">
-        <v>8769</v>
+        <v>10974</v>
       </c>
       <c r="K30">
         <v>25</v>
       </c>
       <c r="L30">
-        <v>876.8</v>
+        <v>1085.1</v>
       </c>
       <c r="M30">
         <v>12</v>
@@ -3792,13 +3801,13 @@
         <v>-0.2</v>
       </c>
       <c r="P30">
-        <v>1404</v>
+        <v>1621</v>
       </c>
       <c r="Q30">
-        <v>56.2</v>
+        <v>64.8</v>
       </c>
       <c r="R30">
-        <v>196.3</v>
+        <v>227.5</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -3807,37 +3816,37 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="W30">
-        <v>988</v>
+        <v>1145</v>
       </c>
       <c r="X30">
         <v>25</v>
       </c>
       <c r="Y30">
-        <v>117</v>
+        <v>124.7</v>
       </c>
       <c r="Z30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA30">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AB30">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AC30">
-        <v>1843</v>
+        <v>3856</v>
       </c>
       <c r="AD30">
-        <v>73.7</v>
+        <v>154.2</v>
       </c>
       <c r="AE30">
-        <v>169.9</v>
+        <v>224.7</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3849,25 +3858,25 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="AJ30">
-        <v>576</v>
+        <v>717</v>
       </c>
       <c r="AK30">
         <v>25</v>
       </c>
       <c r="AL30">
-        <v>368.6</v>
+        <v>321.3</v>
       </c>
       <c r="AM30">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AN30">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="AO30">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="31" spans="1:41">
@@ -3876,34 +3885,34 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D31">
-        <v>128.5</v>
+        <v>133</v>
       </c>
       <c r="E31">
-        <v>181.7</v>
+        <v>188.1</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>64.2</v>
+        <v>66.5</v>
       </c>
       <c r="H31">
-        <v>128.5</v>
+        <v>133</v>
       </c>
       <c r="I31">
-        <v>192.8</v>
+        <v>199.5</v>
       </c>
       <c r="J31">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="K31">
         <v>2</v>
       </c>
       <c r="L31">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -3954,40 +3963,43 @@
         <v>-0.2</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>254.6</v>
       </c>
       <c r="AF31">
         <v>0</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="AK31">
         <v>2</v>
       </c>
+      <c r="AL31">
+        <v>360</v>
+      </c>
       <c r="AM31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO31">
-        <v>-1.3</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:41">
@@ -3998,34 +4010,34 @@
         <v>33</v>
       </c>
       <c r="C32">
-        <v>2301</v>
+        <v>2558</v>
       </c>
       <c r="D32">
-        <v>767</v>
+        <v>852.7</v>
       </c>
       <c r="E32">
-        <v>827.4</v>
+        <v>918.6</v>
       </c>
       <c r="F32">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G32">
-        <v>319.5</v>
+        <v>351</v>
       </c>
       <c r="H32">
-        <v>609</v>
+        <v>649</v>
       </c>
       <c r="I32">
-        <v>1135.5</v>
+        <v>1252.5</v>
       </c>
       <c r="J32">
-        <v>1662</v>
+        <v>1856</v>
       </c>
       <c r="K32">
         <v>3</v>
       </c>
       <c r="L32">
-        <v>767</v>
+        <v>852.7</v>
       </c>
       <c r="M32">
         <v>3</v>
@@ -4037,34 +4049,34 @@
         <v>1.4</v>
       </c>
       <c r="P32">
-        <v>1561</v>
+        <v>1632</v>
       </c>
       <c r="Q32">
-        <v>520.3</v>
+        <v>544</v>
       </c>
       <c r="R32">
-        <v>434.2</v>
+        <v>452.4</v>
       </c>
       <c r="S32">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T32">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="U32">
-        <v>731</v>
+        <v>788</v>
       </c>
       <c r="V32">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="W32">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="X32">
         <v>3</v>
       </c>
       <c r="Y32">
-        <v>520.3</v>
+        <v>544</v>
       </c>
       <c r="Z32">
         <v>3</v>
@@ -4073,37 +4085,37 @@
         <v>100</v>
       </c>
       <c r="AB32">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AC32">
-        <v>2676</v>
+        <v>4180</v>
       </c>
       <c r="AD32">
-        <v>892</v>
+        <v>1393.3</v>
       </c>
       <c r="AE32">
-        <v>723</v>
+        <v>815.3</v>
       </c>
       <c r="AF32">
-        <v>364</v>
+        <v>464</v>
       </c>
       <c r="AG32">
-        <v>480</v>
+        <v>1096</v>
       </c>
       <c r="AH32">
-        <v>596</v>
+        <v>1728</v>
       </c>
       <c r="AI32">
-        <v>1156</v>
+        <v>1858</v>
       </c>
       <c r="AJ32">
-        <v>1716</v>
+        <v>1988</v>
       </c>
       <c r="AK32">
         <v>3</v>
       </c>
       <c r="AL32">
-        <v>892</v>
+        <v>1393.3</v>
       </c>
       <c r="AM32">
         <v>3</v>
@@ -4112,7 +4124,7 @@
         <v>100</v>
       </c>
       <c r="AO32">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="33" spans="1:41">
@@ -4121,121 +4133,121 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>5747</v>
+        <v>6305</v>
       </c>
       <c r="D33">
-        <v>410.5</v>
+        <v>450.4</v>
       </c>
       <c r="E33">
-        <v>529.4</v>
+        <v>575.3</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>234</v>
+        <v>246.5</v>
       </c>
       <c r="I33">
-        <v>620.8</v>
+        <v>674.8</v>
       </c>
       <c r="J33">
-        <v>1662</v>
+        <v>1856</v>
       </c>
       <c r="K33">
         <v>14</v>
       </c>
       <c r="L33">
-        <v>574.7</v>
+        <v>788.1</v>
       </c>
       <c r="M33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N33">
-        <v>71.40000000000001</v>
+        <v>57.1</v>
       </c>
       <c r="O33">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="P33">
-        <v>1487</v>
+        <v>1566</v>
       </c>
       <c r="Q33">
-        <v>106.2</v>
+        <v>111.9</v>
       </c>
       <c r="R33">
-        <v>214.2</v>
+        <v>217.7</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>24.5</v>
+        <v>29</v>
       </c>
       <c r="V33">
-        <v>73</v>
+        <v>92.8</v>
       </c>
       <c r="W33">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="X33">
         <v>14</v>
       </c>
       <c r="Y33">
-        <v>148.7</v>
+        <v>195.8</v>
       </c>
       <c r="Z33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA33">
-        <v>71.40000000000001</v>
+        <v>57.1</v>
       </c>
       <c r="AB33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>2256</v>
+        <v>9027</v>
       </c>
       <c r="AD33">
-        <v>161.1</v>
+        <v>644.8</v>
       </c>
       <c r="AE33">
-        <v>459.6</v>
+        <v>495.2</v>
       </c>
       <c r="AF33">
         <v>0</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>330.8</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>568.5</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>888.8</v>
       </c>
       <c r="AJ33">
-        <v>1716</v>
+        <v>1988</v>
       </c>
       <c r="AK33">
         <v>14</v>
       </c>
       <c r="AL33">
-        <v>752</v>
+        <v>694.4</v>
       </c>
       <c r="AM33">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AN33">
-        <v>21.4</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AO33">
-        <v>-0.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="34" spans="1:41">
@@ -4244,13 +4256,13 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D34">
-        <v>31.2</v>
+        <v>30.8</v>
       </c>
       <c r="E34">
-        <v>76.3</v>
+        <v>75.5</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -4265,13 +4277,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K34">
         <v>6</v>
       </c>
       <c r="L34">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -4283,13 +4295,13 @@
         <v>-1.2</v>
       </c>
       <c r="P34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q34">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="R34">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -4304,13 +4316,13 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X34">
         <v>6</v>
       </c>
       <c r="Y34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z34">
         <v>1</v>
@@ -4322,40 +4334,43 @@
         <v>-1.2</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>36.5</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>72.3</v>
       </c>
       <c r="AF34">
         <v>0</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>20.2</v>
       </c>
       <c r="AJ34">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="AK34">
         <v>6</v>
       </c>
+      <c r="AL34">
+        <v>54.8</v>
+      </c>
       <c r="AM34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN34">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="AO34">
-        <v>-1.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:41">
@@ -4364,13 +4379,13 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>1122</v>
+        <v>1249</v>
       </c>
       <c r="D35">
-        <v>374</v>
+        <v>416.3</v>
       </c>
       <c r="E35">
-        <v>647.8</v>
+        <v>721.1</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -4382,16 +4397,16 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>561</v>
+        <v>624.5</v>
       </c>
       <c r="J35">
-        <v>1122</v>
+        <v>1249</v>
       </c>
       <c r="K35">
         <v>3</v>
       </c>
       <c r="L35">
-        <v>1122</v>
+        <v>1249</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -4403,13 +4418,13 @@
         <v>-0.7</v>
       </c>
       <c r="P35">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Q35">
-        <v>141.7</v>
+        <v>141.3</v>
       </c>
       <c r="R35">
-        <v>245.4</v>
+        <v>244.8</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -4421,16 +4436,16 @@
         <v>0</v>
       </c>
       <c r="V35">
-        <v>212.5</v>
+        <v>212</v>
       </c>
       <c r="W35">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="X35">
         <v>3</v>
       </c>
       <c r="Y35">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Z35">
         <v>1</v>
@@ -4442,43 +4457,43 @@
         <v>-0.7</v>
       </c>
       <c r="AC35">
-        <v>539</v>
+        <v>877</v>
       </c>
       <c r="AD35">
-        <v>179.7</v>
+        <v>292.3</v>
       </c>
       <c r="AE35">
-        <v>311.2</v>
+        <v>290.8</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="AI35">
-        <v>269.5</v>
+        <v>433.5</v>
       </c>
       <c r="AJ35">
-        <v>539</v>
+        <v>591</v>
       </c>
       <c r="AK35">
         <v>3</v>
       </c>
       <c r="AL35">
-        <v>539</v>
+        <v>292.3</v>
       </c>
       <c r="AM35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN35">
-        <v>33.3</v>
+        <v>100</v>
       </c>
       <c r="AO35">
-        <v>-0.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="36" spans="1:41">
@@ -4489,31 +4504,31 @@
         <v>32</v>
       </c>
       <c r="C36">
-        <v>1500</v>
+        <v>2542</v>
       </c>
       <c r="D36">
-        <v>1500</v>
+        <v>2542</v>
       </c>
       <c r="F36">
-        <v>1500</v>
+        <v>2542</v>
       </c>
       <c r="G36">
-        <v>1500</v>
+        <v>2542</v>
       </c>
       <c r="H36">
-        <v>1500</v>
+        <v>2542</v>
       </c>
       <c r="I36">
-        <v>1500</v>
+        <v>2542</v>
       </c>
       <c r="J36">
-        <v>1500</v>
+        <v>2542</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36">
-        <v>1500</v>
+        <v>2542</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -4525,31 +4540,31 @@
         <v>1.4</v>
       </c>
       <c r="P36">
-        <v>7655</v>
+        <v>9517</v>
       </c>
       <c r="Q36">
-        <v>7655</v>
+        <v>9517</v>
       </c>
       <c r="S36">
-        <v>7655</v>
+        <v>9517</v>
       </c>
       <c r="T36">
-        <v>7655</v>
+        <v>9517</v>
       </c>
       <c r="U36">
-        <v>7655</v>
+        <v>9517</v>
       </c>
       <c r="V36">
-        <v>7655</v>
+        <v>9517</v>
       </c>
       <c r="W36">
-        <v>7655</v>
+        <v>9517</v>
       </c>
       <c r="X36">
         <v>1</v>
       </c>
       <c r="Y36">
-        <v>7655</v>
+        <v>9517</v>
       </c>
       <c r="Z36">
         <v>1</v>
@@ -4558,34 +4573,34 @@
         <v>100</v>
       </c>
       <c r="AB36">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AC36">
-        <v>291</v>
+        <v>392</v>
       </c>
       <c r="AD36">
-        <v>291</v>
+        <v>392</v>
       </c>
       <c r="AF36">
-        <v>291</v>
+        <v>392</v>
       </c>
       <c r="AG36">
-        <v>291</v>
+        <v>392</v>
       </c>
       <c r="AH36">
-        <v>291</v>
+        <v>392</v>
       </c>
       <c r="AI36">
-        <v>291</v>
+        <v>392</v>
       </c>
       <c r="AJ36">
-        <v>291</v>
+        <v>392</v>
       </c>
       <c r="AK36">
         <v>1</v>
       </c>
       <c r="AL36">
-        <v>291</v>
+        <v>392</v>
       </c>
       <c r="AM36">
         <v>1</v>
@@ -4594,7 +4609,7 @@
         <v>100</v>
       </c>
       <c r="AO36">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="37" spans="1:41">
@@ -4603,121 +4618,121 @@
         <v>33</v>
       </c>
       <c r="C37">
-        <v>204290</v>
+        <v>241090</v>
       </c>
       <c r="D37">
-        <v>1536</v>
+        <v>1812.7</v>
       </c>
       <c r="E37">
-        <v>2099</v>
+        <v>2470.8</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H37">
-        <v>989</v>
+        <v>1197</v>
       </c>
       <c r="I37">
-        <v>1915</v>
+        <v>2120</v>
       </c>
       <c r="J37">
-        <v>11096</v>
+        <v>13295</v>
       </c>
       <c r="K37">
         <v>133</v>
       </c>
       <c r="L37">
-        <v>1927.3</v>
+        <v>2296.1</v>
       </c>
       <c r="M37">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N37">
-        <v>79.7</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="O37">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="P37">
-        <v>118281</v>
+        <v>136710</v>
       </c>
       <c r="Q37">
-        <v>889.3</v>
+        <v>1027.9</v>
       </c>
       <c r="R37">
-        <v>2216.8</v>
+        <v>2592.3</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U37">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="V37">
-        <v>812</v>
+        <v>874</v>
       </c>
       <c r="W37">
-        <v>20111</v>
+        <v>22462</v>
       </c>
       <c r="X37">
         <v>133</v>
       </c>
       <c r="Y37">
-        <v>1105.4</v>
+        <v>1289.7</v>
       </c>
       <c r="Z37">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA37">
-        <v>80.5</v>
+        <v>79.7</v>
       </c>
       <c r="AB37">
         <v>0.7</v>
       </c>
       <c r="AC37">
-        <v>85997</v>
+        <v>116458</v>
       </c>
       <c r="AD37">
-        <v>646.6</v>
+        <v>875.6</v>
       </c>
       <c r="AE37">
-        <v>725.4</v>
+        <v>899.7</v>
       </c>
       <c r="AF37">
         <v>0</v>
       </c>
       <c r="AG37">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AH37">
-        <v>556</v>
+        <v>772</v>
       </c>
       <c r="AI37">
-        <v>1051</v>
+        <v>1344</v>
       </c>
       <c r="AJ37">
-        <v>4241</v>
+        <v>5325</v>
       </c>
       <c r="AK37">
         <v>133</v>
       </c>
       <c r="AL37">
-        <v>988.5</v>
+        <v>1141.7</v>
       </c>
       <c r="AM37">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AN37">
-        <v>65.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="AO37">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="38" spans="1:41">
@@ -4726,13 +4741,13 @@
         <v>34</v>
       </c>
       <c r="C38">
-        <v>302737</v>
+        <v>361521</v>
       </c>
       <c r="D38">
-        <v>992.6</v>
+        <v>1185.3</v>
       </c>
       <c r="E38">
-        <v>2912</v>
+        <v>3641.2</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -4741,58 +4756,58 @@
         <v>10</v>
       </c>
       <c r="H38">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="I38">
-        <v>1127</v>
+        <v>1343</v>
       </c>
       <c r="J38">
-        <v>43003</v>
+        <v>55081</v>
       </c>
       <c r="K38">
         <v>305</v>
       </c>
       <c r="L38">
-        <v>1277.4</v>
+        <v>1531.9</v>
       </c>
       <c r="M38">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N38">
-        <v>77.7</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="O38">
         <v>0.7</v>
       </c>
       <c r="P38">
-        <v>80841</v>
+        <v>94065</v>
       </c>
       <c r="Q38">
-        <v>265.1</v>
+        <v>308.4</v>
       </c>
       <c r="R38">
-        <v>706.8</v>
+        <v>853.7</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U38">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="V38">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="W38">
-        <v>7809</v>
+        <v>9950</v>
       </c>
       <c r="X38">
         <v>305</v>
       </c>
       <c r="Y38">
-        <v>338.2</v>
+        <v>393.6</v>
       </c>
       <c r="Z38">
         <v>239</v>
@@ -4804,43 +4819,43 @@
         <v>0.7</v>
       </c>
       <c r="AC38">
-        <v>106968</v>
+        <v>162460</v>
       </c>
       <c r="AD38">
-        <v>350.7</v>
+        <v>532.7</v>
       </c>
       <c r="AE38">
-        <v>591.6</v>
+        <v>583.7</v>
       </c>
       <c r="AF38">
         <v>0</v>
       </c>
       <c r="AG38">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="AI38">
-        <v>556</v>
+        <v>789</v>
       </c>
       <c r="AJ38">
-        <v>6335</v>
+        <v>3197</v>
       </c>
       <c r="AK38">
         <v>305</v>
       </c>
       <c r="AL38">
-        <v>742.8</v>
+        <v>679.7</v>
       </c>
       <c r="AM38">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="AN38">
-        <v>47.2</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="AO38">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="39" spans="1:41">
@@ -4849,13 +4864,13 @@
         <v>31</v>
       </c>
       <c r="C39">
-        <v>488532</v>
+        <v>567036</v>
       </c>
       <c r="D39">
-        <v>473.4</v>
+        <v>549.5</v>
       </c>
       <c r="E39">
-        <v>1758.7</v>
+        <v>1946.3</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -4864,37 +4879,37 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="I39">
-        <v>437.8</v>
+        <v>500.2</v>
       </c>
       <c r="J39">
-        <v>47580</v>
+        <v>50844</v>
       </c>
       <c r="K39">
         <v>1032</v>
       </c>
       <c r="L39">
-        <v>830.8</v>
+        <v>974.3</v>
       </c>
       <c r="M39">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="N39">
-        <v>57</v>
+        <v>56.4</v>
       </c>
       <c r="O39">
         <v>0</v>
       </c>
       <c r="P39">
-        <v>144437</v>
+        <v>170346</v>
       </c>
       <c r="Q39">
-        <v>140</v>
+        <v>165.1</v>
       </c>
       <c r="R39">
-        <v>597</v>
+        <v>716.9</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -4903,37 +4918,37 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V39">
-        <v>61.2</v>
+        <v>76.2</v>
       </c>
       <c r="W39">
-        <v>11227</v>
+        <v>13956</v>
       </c>
       <c r="X39">
         <v>1032</v>
       </c>
       <c r="Y39">
-        <v>244.4</v>
+        <v>291.2</v>
       </c>
       <c r="Z39">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="AA39">
-        <v>57.3</v>
+        <v>56.7</v>
       </c>
       <c r="AB39">
         <v>0</v>
       </c>
       <c r="AC39">
-        <v>161733</v>
+        <v>301048</v>
       </c>
       <c r="AD39">
-        <v>156.7</v>
+        <v>291.7</v>
       </c>
       <c r="AE39">
-        <v>413.7</v>
+        <v>513.4</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4942,28 +4957,28 @@
         <v>0</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AI39">
-        <v>0</v>
+        <v>370.8</v>
       </c>
       <c r="AJ39">
-        <v>3642</v>
+        <v>4716</v>
       </c>
       <c r="AK39">
         <v>1032</v>
       </c>
       <c r="AL39">
-        <v>665.6</v>
+        <v>491.1</v>
       </c>
       <c r="AM39">
-        <v>243</v>
+        <v>613</v>
       </c>
       <c r="AN39">
-        <v>23.5</v>
+        <v>59.4</v>
       </c>
       <c r="AO39">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="40" spans="1:41">
@@ -4972,13 +4987,13 @@
         <v>35</v>
       </c>
       <c r="C40">
-        <v>35034</v>
+        <v>40187</v>
       </c>
       <c r="D40">
-        <v>574.3</v>
+        <v>658.8</v>
       </c>
       <c r="E40">
-        <v>1019.6</v>
+        <v>1165.2</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -4987,37 +5002,37 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I40">
-        <v>876</v>
+        <v>1036</v>
       </c>
       <c r="J40">
-        <v>5535</v>
+        <v>6402</v>
       </c>
       <c r="K40">
         <v>61</v>
       </c>
       <c r="L40">
-        <v>1001</v>
+        <v>1182</v>
       </c>
       <c r="M40">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N40">
-        <v>57.4</v>
+        <v>55.7</v>
       </c>
       <c r="O40">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>10901</v>
+        <v>11969</v>
       </c>
       <c r="Q40">
-        <v>178.7</v>
+        <v>196.2</v>
       </c>
       <c r="R40">
-        <v>538.5</v>
+        <v>586.2</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -5029,16 +5044,16 @@
         <v>5</v>
       </c>
       <c r="V40">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="W40">
-        <v>3807</v>
+        <v>4177</v>
       </c>
       <c r="X40">
         <v>61</v>
       </c>
       <c r="Y40">
-        <v>320.6</v>
+        <v>352</v>
       </c>
       <c r="Z40">
         <v>34</v>
@@ -5050,13 +5065,13 @@
         <v>-0</v>
       </c>
       <c r="AC40">
-        <v>35801</v>
+        <v>29894</v>
       </c>
       <c r="AD40">
-        <v>586.9</v>
+        <v>490.1</v>
       </c>
       <c r="AE40">
-        <v>2611.8</v>
+        <v>631</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -5065,28 +5080,28 @@
         <v>0</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="AI40">
-        <v>254</v>
+        <v>771</v>
       </c>
       <c r="AJ40">
-        <v>20246</v>
+        <v>3094</v>
       </c>
       <c r="AK40">
         <v>61</v>
       </c>
       <c r="AL40">
-        <v>1790</v>
+        <v>729.1</v>
       </c>
       <c r="AM40">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="AN40">
-        <v>32.8</v>
+        <v>67.2</v>
       </c>
       <c r="AO40">
-        <v>-0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="41" spans="1:41">
@@ -5097,13 +5112,13 @@
         <v>33</v>
       </c>
       <c r="C41">
-        <v>12602</v>
+        <v>14705</v>
       </c>
       <c r="D41">
-        <v>525.1</v>
+        <v>612.7</v>
       </c>
       <c r="E41">
-        <v>768.3</v>
+        <v>920</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -5112,19 +5127,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="I41">
-        <v>844.8</v>
+        <v>995</v>
       </c>
       <c r="J41">
-        <v>3081</v>
+        <v>3658</v>
       </c>
       <c r="K41">
         <v>24</v>
       </c>
       <c r="L41">
-        <v>741.3</v>
+        <v>865</v>
       </c>
       <c r="M41">
         <v>17</v>
@@ -5136,34 +5151,34 @@
         <v>0.5</v>
       </c>
       <c r="P41">
-        <v>26344</v>
+        <v>32445</v>
       </c>
       <c r="Q41">
-        <v>1097.7</v>
+        <v>1351.9</v>
       </c>
       <c r="R41">
-        <v>3978.2</v>
+        <v>4996.2</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>5.8</v>
+        <v>8</v>
       </c>
       <c r="U41">
-        <v>33.5</v>
+        <v>42</v>
       </c>
       <c r="V41">
-        <v>275.8</v>
+        <v>325</v>
       </c>
       <c r="W41">
-        <v>19557</v>
+        <v>24554</v>
       </c>
       <c r="X41">
         <v>24</v>
       </c>
       <c r="Y41">
-        <v>1386.5</v>
+        <v>1707.6</v>
       </c>
       <c r="Z41">
         <v>19</v>
@@ -5175,40 +5190,40 @@
         <v>0.7</v>
       </c>
       <c r="AC41">
-        <v>9335</v>
+        <v>11440</v>
       </c>
       <c r="AD41">
-        <v>389</v>
+        <v>476.7</v>
       </c>
       <c r="AE41">
-        <v>578.3</v>
+        <v>537.6</v>
       </c>
       <c r="AF41">
         <v>0</v>
       </c>
       <c r="AG41">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="AH41">
-        <v>79</v>
+        <v>255.5</v>
       </c>
       <c r="AI41">
-        <v>604</v>
+        <v>854.5</v>
       </c>
       <c r="AJ41">
-        <v>2432</v>
+        <v>1599</v>
       </c>
       <c r="AK41">
         <v>24</v>
       </c>
       <c r="AL41">
-        <v>718.1</v>
+        <v>635.6</v>
       </c>
       <c r="AM41">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AN41">
-        <v>54.2</v>
+        <v>75</v>
       </c>
       <c r="AO41">
         <v>0.3</v>
@@ -5220,13 +5235,13 @@
         <v>34</v>
       </c>
       <c r="C42">
-        <v>14593</v>
+        <v>16923</v>
       </c>
       <c r="D42">
-        <v>331.7</v>
+        <v>384.6</v>
       </c>
       <c r="E42">
-        <v>712.2</v>
+        <v>805.7</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -5235,37 +5250,37 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>43.5</v>
+        <v>50</v>
       </c>
       <c r="I42">
-        <v>339.8</v>
+        <v>405.5</v>
       </c>
       <c r="J42">
-        <v>3823</v>
+        <v>4456</v>
       </c>
       <c r="K42">
         <v>44</v>
       </c>
       <c r="L42">
-        <v>561.3</v>
+        <v>626.8</v>
       </c>
       <c r="M42">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N42">
-        <v>59.1</v>
+        <v>61.4</v>
       </c>
       <c r="O42">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P42">
-        <v>4334</v>
+        <v>5030</v>
       </c>
       <c r="Q42">
-        <v>98.5</v>
+        <v>114.3</v>
       </c>
       <c r="R42">
-        <v>228.9</v>
+        <v>265.8</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -5274,19 +5289,19 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="V42">
-        <v>68.8</v>
+        <v>76.8</v>
       </c>
       <c r="W42">
-        <v>1215</v>
+        <v>1380</v>
       </c>
       <c r="X42">
         <v>44</v>
       </c>
       <c r="Y42">
-        <v>139.8</v>
+        <v>162.3</v>
       </c>
       <c r="Z42">
         <v>31</v>
@@ -5298,13 +5313,13 @@
         <v>0.4</v>
       </c>
       <c r="AC42">
-        <v>46449</v>
+        <v>18062</v>
       </c>
       <c r="AD42">
-        <v>1055.7</v>
+        <v>410.5</v>
       </c>
       <c r="AE42">
-        <v>5551.8</v>
+        <v>496.5</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -5313,28 +5328,28 @@
         <v>0</v>
       </c>
       <c r="AH42">
-        <v>0</v>
+        <v>290.5</v>
       </c>
       <c r="AI42">
-        <v>308.5</v>
+        <v>629.5</v>
       </c>
       <c r="AJ42">
-        <v>36948</v>
+        <v>1916</v>
       </c>
       <c r="AK42">
         <v>44</v>
       </c>
       <c r="AL42">
-        <v>2903.1</v>
+        <v>622.8</v>
       </c>
       <c r="AM42">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AN42">
-        <v>36.4</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="AO42">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:41">
@@ -5343,13 +5358,13 @@
         <v>31</v>
       </c>
       <c r="C43">
-        <v>101558</v>
+        <v>118032</v>
       </c>
       <c r="D43">
-        <v>280.5</v>
+        <v>326.1</v>
       </c>
       <c r="E43">
-        <v>998</v>
+        <v>1218.3</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -5361,34 +5376,34 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>188.8</v>
+        <v>220</v>
       </c>
       <c r="J43">
-        <v>14101</v>
+        <v>17617</v>
       </c>
       <c r="K43">
         <v>362</v>
       </c>
       <c r="L43">
-        <v>611.8</v>
+        <v>706.8</v>
       </c>
       <c r="M43">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N43">
-        <v>45.9</v>
+        <v>46.1</v>
       </c>
       <c r="O43">
         <v>-0.3</v>
       </c>
       <c r="P43">
-        <v>28795</v>
+        <v>33509</v>
       </c>
       <c r="Q43">
-        <v>79.5</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="R43">
-        <v>277.9</v>
+        <v>343.7</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -5400,34 +5415,34 @@
         <v>0</v>
       </c>
       <c r="V43">
-        <v>36.5</v>
+        <v>43.8</v>
       </c>
       <c r="W43">
-        <v>3532</v>
+        <v>4641</v>
       </c>
       <c r="X43">
         <v>362</v>
       </c>
       <c r="Y43">
-        <v>163.6</v>
+        <v>188.3</v>
       </c>
       <c r="Z43">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AA43">
-        <v>48.6</v>
+        <v>49.2</v>
       </c>
       <c r="AB43">
         <v>-0.2</v>
       </c>
       <c r="AC43">
-        <v>112296</v>
+        <v>103602</v>
       </c>
       <c r="AD43">
-        <v>310.2</v>
+        <v>286.2</v>
       </c>
       <c r="AE43">
-        <v>2006.9</v>
+        <v>516.6</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -5436,28 +5451,28 @@
         <v>0</v>
       </c>
       <c r="AH43">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="AI43">
-        <v>105</v>
+        <v>402.5</v>
       </c>
       <c r="AJ43">
-        <v>36858</v>
+        <v>5226</v>
       </c>
       <c r="AK43">
         <v>362</v>
       </c>
       <c r="AL43">
-        <v>1079.8</v>
+        <v>518</v>
       </c>
       <c r="AM43">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="AN43">
-        <v>28.7</v>
+        <v>55.2</v>
       </c>
       <c r="AO43">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="44" spans="1:41">
@@ -5466,13 +5481,13 @@
         <v>35</v>
       </c>
       <c r="C44">
-        <v>65312</v>
+        <v>75968</v>
       </c>
       <c r="D44">
-        <v>1555</v>
+        <v>1808.8</v>
       </c>
       <c r="E44">
-        <v>7376.5</v>
+        <v>8175.7</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -5481,19 +5496,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>488</v>
+        <v>591.2</v>
       </c>
       <c r="J44">
-        <v>47571</v>
+        <v>52263</v>
       </c>
       <c r="K44">
         <v>42</v>
       </c>
       <c r="L44">
-        <v>2968.7</v>
+        <v>3453.1</v>
       </c>
       <c r="M44">
         <v>22</v>
@@ -5505,13 +5520,13 @@
         <v>-0.1</v>
       </c>
       <c r="P44">
-        <v>24873</v>
+        <v>29612</v>
       </c>
       <c r="Q44">
-        <v>592.2</v>
+        <v>705</v>
       </c>
       <c r="R44">
-        <v>3220.1</v>
+        <v>3798.9</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -5520,37 +5535,37 @@
         <v>0</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V44">
-        <v>51.8</v>
+        <v>62.5</v>
       </c>
       <c r="W44">
-        <v>20884</v>
+        <v>24618</v>
       </c>
       <c r="X44">
         <v>42</v>
       </c>
       <c r="Y44">
-        <v>1243.6</v>
+        <v>1410.1</v>
       </c>
       <c r="Z44">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA44">
-        <v>47.6</v>
+        <v>50</v>
       </c>
       <c r="AB44">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="AC44">
-        <v>29347</v>
+        <v>17262</v>
       </c>
       <c r="AD44">
-        <v>698.7</v>
+        <v>411</v>
       </c>
       <c r="AE44">
-        <v>2064.3</v>
+        <v>658.8</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -5559,28 +5574,28 @@
         <v>0</v>
       </c>
       <c r="AH44">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AI44">
-        <v>23.2</v>
+        <v>610.5</v>
       </c>
       <c r="AJ44">
-        <v>8880</v>
+        <v>3251</v>
       </c>
       <c r="AK44">
         <v>42</v>
       </c>
       <c r="AL44">
-        <v>2667.9</v>
+        <v>719.2</v>
       </c>
       <c r="AM44">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AN44">
-        <v>26.2</v>
+        <v>57.1</v>
       </c>
       <c r="AO44">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="45" spans="1:41">
@@ -5591,34 +5606,34 @@
         <v>33</v>
       </c>
       <c r="C45">
-        <v>4991</v>
+        <v>5760</v>
       </c>
       <c r="D45">
-        <v>1663.7</v>
+        <v>1920</v>
       </c>
       <c r="E45">
-        <v>2497.1</v>
+        <v>2925.5</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>228</v>
+        <v>236.5</v>
       </c>
       <c r="H45">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="I45">
-        <v>2495.5</v>
+        <v>2880</v>
       </c>
       <c r="J45">
-        <v>4535</v>
+        <v>5287</v>
       </c>
       <c r="K45">
         <v>3</v>
       </c>
       <c r="L45">
-        <v>2495.5</v>
+        <v>2880</v>
       </c>
       <c r="M45">
         <v>2</v>
@@ -5627,37 +5642,37 @@
         <v>66.7</v>
       </c>
       <c r="O45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="P45">
-        <v>1735</v>
+        <v>2041</v>
       </c>
       <c r="Q45">
-        <v>578.3</v>
+        <v>680.3</v>
       </c>
       <c r="R45">
-        <v>853.8</v>
+        <v>1024.8</v>
       </c>
       <c r="S45">
         <v>0</v>
       </c>
       <c r="T45">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U45">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="V45">
-        <v>867.5</v>
+        <v>1020.5</v>
       </c>
       <c r="W45">
-        <v>1559</v>
+        <v>1859</v>
       </c>
       <c r="X45">
         <v>3</v>
       </c>
       <c r="Y45">
-        <v>867.5</v>
+        <v>1020.5</v>
       </c>
       <c r="Z45">
         <v>2</v>
@@ -5669,34 +5684,34 @@
         <v>0.3</v>
       </c>
       <c r="AC45">
-        <v>1955</v>
+        <v>2311</v>
       </c>
       <c r="AD45">
-        <v>651.7</v>
+        <v>770.3</v>
       </c>
       <c r="AE45">
-        <v>790.5</v>
+        <v>940.9</v>
       </c>
       <c r="AF45">
         <v>0</v>
       </c>
       <c r="AG45">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="AH45">
-        <v>424</v>
+        <v>492</v>
       </c>
       <c r="AI45">
-        <v>977.5</v>
+        <v>1155.5</v>
       </c>
       <c r="AJ45">
-        <v>1531</v>
+        <v>1819</v>
       </c>
       <c r="AK45">
         <v>3</v>
       </c>
       <c r="AL45">
-        <v>977.5</v>
+        <v>1155.5</v>
       </c>
       <c r="AM45">
         <v>2</v>
@@ -5705,7 +5720,7 @@
         <v>66.7</v>
       </c>
       <c r="AO45">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:41">
@@ -5714,13 +5729,13 @@
         <v>34</v>
       </c>
       <c r="C46">
-        <v>5830</v>
+        <v>7238</v>
       </c>
       <c r="D46">
-        <v>530</v>
+        <v>658</v>
       </c>
       <c r="E46">
-        <v>1177.9</v>
+        <v>1547.4</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -5732,16 +5747,16 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>332</v>
+        <v>340.5</v>
       </c>
       <c r="J46">
-        <v>3894</v>
+        <v>5153</v>
       </c>
       <c r="K46">
         <v>11</v>
       </c>
       <c r="L46">
-        <v>1166</v>
+        <v>1447.6</v>
       </c>
       <c r="M46">
         <v>5</v>
@@ -5753,13 +5768,13 @@
         <v>-0.3</v>
       </c>
       <c r="P46">
-        <v>1585</v>
+        <v>1778</v>
       </c>
       <c r="Q46">
-        <v>144.1</v>
+        <v>161.6</v>
       </c>
       <c r="R46">
-        <v>237.2</v>
+        <v>267.3</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -5771,16 +5786,16 @@
         <v>0</v>
       </c>
       <c r="V46">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="W46">
-        <v>589</v>
+        <v>637</v>
       </c>
       <c r="X46">
         <v>11</v>
       </c>
       <c r="Y46">
-        <v>317</v>
+        <v>355.6</v>
       </c>
       <c r="Z46">
         <v>5</v>
@@ -5792,13 +5807,13 @@
         <v>-0.3</v>
       </c>
       <c r="AC46">
-        <v>1883</v>
+        <v>4837</v>
       </c>
       <c r="AD46">
-        <v>171.2</v>
+        <v>439.7</v>
       </c>
       <c r="AE46">
-        <v>328.2</v>
+        <v>628.7</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -5807,28 +5822,28 @@
         <v>0</v>
       </c>
       <c r="AH46">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI46">
-        <v>125.5</v>
+        <v>703</v>
       </c>
       <c r="AJ46">
-        <v>865</v>
+        <v>1879</v>
       </c>
       <c r="AK46">
         <v>11</v>
       </c>
       <c r="AL46">
-        <v>627.7</v>
+        <v>806.2</v>
       </c>
       <c r="AM46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AN46">
-        <v>27.3</v>
+        <v>54.5</v>
       </c>
       <c r="AO46">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="47" spans="1:41">
@@ -5837,13 +5852,13 @@
         <v>31</v>
       </c>
       <c r="C47">
-        <v>35529</v>
+        <v>42623</v>
       </c>
       <c r="D47">
-        <v>370.1</v>
+        <v>444</v>
       </c>
       <c r="E47">
-        <v>880.9</v>
+        <v>1061</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -5855,16 +5870,16 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>220.8</v>
+        <v>278</v>
       </c>
       <c r="J47">
-        <v>6108</v>
+        <v>7355</v>
       </c>
       <c r="K47">
         <v>96</v>
       </c>
       <c r="L47">
-        <v>986.9</v>
+        <v>1184</v>
       </c>
       <c r="M47">
         <v>36</v>
@@ -5876,13 +5891,13 @@
         <v>-0.6</v>
       </c>
       <c r="P47">
-        <v>11021</v>
+        <v>13232</v>
       </c>
       <c r="Q47">
-        <v>114.8</v>
+        <v>137.8</v>
       </c>
       <c r="R47">
-        <v>343.2</v>
+        <v>419</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -5894,34 +5909,34 @@
         <v>0</v>
       </c>
       <c r="V47">
-        <v>42.5</v>
+        <v>51.5</v>
       </c>
       <c r="W47">
-        <v>2128</v>
+        <v>2724</v>
       </c>
       <c r="X47">
         <v>96</v>
       </c>
       <c r="Y47">
-        <v>290</v>
+        <v>339.3</v>
       </c>
       <c r="Z47">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA47">
-        <v>39.6</v>
+        <v>40.6</v>
       </c>
       <c r="AB47">
         <v>-0.5</v>
       </c>
       <c r="AC47">
-        <v>35260</v>
+        <v>30367</v>
       </c>
       <c r="AD47">
-        <v>367.3</v>
+        <v>316.3</v>
       </c>
       <c r="AE47">
-        <v>2249.7</v>
+        <v>684.9</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -5930,28 +5945,28 @@
         <v>0</v>
       </c>
       <c r="AH47">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AI47">
-        <v>0</v>
+        <v>264.5</v>
       </c>
       <c r="AJ47">
-        <v>21892</v>
+        <v>4927</v>
       </c>
       <c r="AK47">
         <v>96</v>
       </c>
       <c r="AL47">
-        <v>1679</v>
+        <v>595.4</v>
       </c>
       <c r="AM47">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AN47">
-        <v>21.9</v>
+        <v>53.1</v>
       </c>
       <c r="AO47">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="48" spans="1:41">
@@ -5960,13 +5975,13 @@
         <v>35</v>
       </c>
       <c r="C48">
-        <v>2475</v>
+        <v>2843</v>
       </c>
       <c r="D48">
-        <v>825</v>
+        <v>947.7</v>
       </c>
       <c r="E48">
-        <v>1428.9</v>
+        <v>1641.4</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -5978,16 +5993,16 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>1237.5</v>
+        <v>1421.5</v>
       </c>
       <c r="J48">
-        <v>2475</v>
+        <v>2843</v>
       </c>
       <c r="K48">
         <v>3</v>
       </c>
       <c r="L48">
-        <v>2475</v>
+        <v>2843</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -5999,13 +6014,13 @@
         <v>-0.7</v>
       </c>
       <c r="P48">
-        <v>692</v>
+        <v>756</v>
       </c>
       <c r="Q48">
-        <v>230.7</v>
+        <v>252</v>
       </c>
       <c r="R48">
-        <v>399.5</v>
+        <v>436.5</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -6017,16 +6032,16 @@
         <v>0</v>
       </c>
       <c r="V48">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="W48">
-        <v>692</v>
+        <v>756</v>
       </c>
       <c r="X48">
         <v>3</v>
       </c>
       <c r="Y48">
-        <v>692</v>
+        <v>756</v>
       </c>
       <c r="Z48">
         <v>1</v>
@@ -6038,13 +6053,13 @@
         <v>-0.7</v>
       </c>
       <c r="AC48">
-        <v>786</v>
+        <v>1277</v>
       </c>
       <c r="AD48">
-        <v>262</v>
+        <v>425.7</v>
       </c>
       <c r="AE48">
-        <v>453.8</v>
+        <v>737.3</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -6056,16 +6071,16 @@
         <v>0</v>
       </c>
       <c r="AI48">
-        <v>393</v>
+        <v>638.5</v>
       </c>
       <c r="AJ48">
-        <v>786</v>
+        <v>1277</v>
       </c>
       <c r="AK48">
         <v>3</v>
       </c>
       <c r="AL48">
-        <v>786</v>
+        <v>1277</v>
       </c>
       <c r="AM48">
         <v>1</v>
@@ -6074,7 +6089,7 @@
         <v>33.3</v>
       </c>
       <c r="AO48">
-        <v>-0.3</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="49" spans="1:41">
@@ -6085,34 +6100,34 @@
         <v>33</v>
       </c>
       <c r="C49">
-        <v>54008</v>
+        <v>63957</v>
       </c>
       <c r="D49">
-        <v>3600.5</v>
+        <v>4263.8</v>
       </c>
       <c r="E49">
-        <v>2995.2</v>
+        <v>3492.3</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>1463</v>
+        <v>1657.5</v>
       </c>
       <c r="H49">
-        <v>2910</v>
+        <v>3505</v>
       </c>
       <c r="I49">
-        <v>4927</v>
+        <v>5901.5</v>
       </c>
       <c r="J49">
-        <v>8682</v>
+        <v>10192</v>
       </c>
       <c r="K49">
         <v>15</v>
       </c>
       <c r="L49">
-        <v>4154.5</v>
+        <v>4919.8</v>
       </c>
       <c r="M49">
         <v>13</v>
@@ -6124,34 +6139,34 @@
         <v>1</v>
       </c>
       <c r="P49">
-        <v>27489</v>
+        <v>32016</v>
       </c>
       <c r="Q49">
-        <v>1832.6</v>
+        <v>2134.4</v>
       </c>
       <c r="R49">
-        <v>3234.6</v>
+        <v>3713</v>
       </c>
       <c r="S49">
         <v>0</v>
       </c>
       <c r="T49">
-        <v>242.5</v>
+        <v>306</v>
       </c>
       <c r="U49">
-        <v>602</v>
+        <v>714</v>
       </c>
       <c r="V49">
-        <v>1325.5</v>
+        <v>1592.5</v>
       </c>
       <c r="W49">
-        <v>9692</v>
+        <v>11140</v>
       </c>
       <c r="X49">
         <v>15</v>
       </c>
       <c r="Y49">
-        <v>2114.5</v>
+        <v>2462.8</v>
       </c>
       <c r="Z49">
         <v>13</v>
@@ -6163,43 +6178,43 @@
         <v>0.9</v>
       </c>
       <c r="AC49">
-        <v>12287</v>
+        <v>15804</v>
       </c>
       <c r="AD49">
-        <v>819.1</v>
+        <v>1053.6</v>
       </c>
       <c r="AE49">
-        <v>562.1</v>
+        <v>622.5</v>
       </c>
       <c r="AF49">
         <v>0</v>
       </c>
       <c r="AG49">
-        <v>524</v>
+        <v>567</v>
       </c>
       <c r="AH49">
-        <v>761</v>
+        <v>1080</v>
       </c>
       <c r="AI49">
-        <v>1090</v>
+        <v>1443</v>
       </c>
       <c r="AJ49">
-        <v>1710</v>
+        <v>2094</v>
       </c>
       <c r="AK49">
         <v>15</v>
       </c>
       <c r="AL49">
-        <v>1023.9</v>
+        <v>1128.9</v>
       </c>
       <c r="AM49">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AN49">
-        <v>80</v>
+        <v>93.3</v>
       </c>
       <c r="AO49">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="50" spans="1:41">
@@ -6208,91 +6223,91 @@
         <v>34</v>
       </c>
       <c r="C50">
-        <v>61743</v>
+        <v>73333</v>
       </c>
       <c r="D50">
-        <v>1715.1</v>
+        <v>2037</v>
       </c>
       <c r="E50">
-        <v>2325.2</v>
+        <v>2647.6</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>208.2</v>
+        <v>296.8</v>
       </c>
       <c r="H50">
-        <v>1312.5</v>
+        <v>1564</v>
       </c>
       <c r="I50">
-        <v>2093.2</v>
+        <v>2561</v>
       </c>
       <c r="J50">
-        <v>13060</v>
+        <v>14651</v>
       </c>
       <c r="K50">
         <v>36</v>
       </c>
       <c r="L50">
-        <v>1991.7</v>
+        <v>2444.4</v>
       </c>
       <c r="M50">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N50">
-        <v>86.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P50">
-        <v>56289</v>
+        <v>59530</v>
       </c>
       <c r="Q50">
-        <v>1563.6</v>
+        <v>1653.6</v>
       </c>
       <c r="R50">
-        <v>7795.3</v>
+        <v>8077.5</v>
       </c>
       <c r="S50">
         <v>0</v>
       </c>
       <c r="T50">
-        <v>48.2</v>
+        <v>60.5</v>
       </c>
       <c r="U50">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="V50">
-        <v>327.2</v>
+        <v>382.2</v>
       </c>
       <c r="W50">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="X50">
         <v>36</v>
       </c>
       <c r="Y50">
-        <v>1815.8</v>
+        <v>1984.3</v>
       </c>
       <c r="Z50">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA50">
-        <v>86.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="AB50">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AC50">
-        <v>17903</v>
+        <v>23421</v>
       </c>
       <c r="AD50">
-        <v>497.3</v>
+        <v>650.6</v>
       </c>
       <c r="AE50">
-        <v>515.5</v>
+        <v>616.2</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -6301,28 +6316,28 @@
         <v>0</v>
       </c>
       <c r="AH50">
-        <v>425.5</v>
+        <v>664.5</v>
       </c>
       <c r="AI50">
-        <v>860</v>
+        <v>1140</v>
       </c>
       <c r="AJ50">
-        <v>1473</v>
+        <v>1845</v>
       </c>
       <c r="AK50">
         <v>36</v>
       </c>
       <c r="AL50">
-        <v>813.8</v>
+        <v>936.8</v>
       </c>
       <c r="AM50">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AN50">
-        <v>61.1</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="AO50">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="51" spans="1:41">
@@ -6331,13 +6346,13 @@
         <v>31</v>
       </c>
       <c r="C51">
-        <v>41413</v>
+        <v>47883</v>
       </c>
       <c r="D51">
-        <v>1089.8</v>
+        <v>1260.1</v>
       </c>
       <c r="E51">
-        <v>1366.9</v>
+        <v>1584.9</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -6346,19 +6361,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>435.5</v>
+        <v>502</v>
       </c>
       <c r="I51">
-        <v>1901.2</v>
+        <v>2172</v>
       </c>
       <c r="J51">
-        <v>4400</v>
+        <v>5297</v>
       </c>
       <c r="K51">
         <v>38</v>
       </c>
       <c r="L51">
-        <v>1656.5</v>
+        <v>1915.3</v>
       </c>
       <c r="M51">
         <v>25</v>
@@ -6370,13 +6385,13 @@
         <v>0.3</v>
       </c>
       <c r="P51">
-        <v>10308</v>
+        <v>11538</v>
       </c>
       <c r="Q51">
-        <v>271.3</v>
+        <v>303.6</v>
       </c>
       <c r="R51">
-        <v>415.8</v>
+        <v>466.5</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -6385,19 +6400,19 @@
         <v>0</v>
       </c>
       <c r="U51">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="V51">
-        <v>382</v>
+        <v>400.5</v>
       </c>
       <c r="W51">
-        <v>1707</v>
+        <v>1911</v>
       </c>
       <c r="X51">
         <v>38</v>
       </c>
       <c r="Y51">
-        <v>412.3</v>
+        <v>461.5</v>
       </c>
       <c r="Z51">
         <v>25</v>
@@ -6409,13 +6424,13 @@
         <v>0.3</v>
       </c>
       <c r="AC51">
-        <v>21047</v>
+        <v>12974</v>
       </c>
       <c r="AD51">
-        <v>553.9</v>
+        <v>341.4</v>
       </c>
       <c r="AE51">
-        <v>1066.4</v>
+        <v>592.1</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -6424,28 +6439,28 @@
         <v>0</v>
       </c>
       <c r="AH51">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI51">
-        <v>829.8</v>
+        <v>401</v>
       </c>
       <c r="AJ51">
-        <v>5316</v>
+        <v>2204</v>
       </c>
       <c r="AK51">
         <v>38</v>
       </c>
       <c r="AL51">
-        <v>1315.4</v>
+        <v>648.7</v>
       </c>
       <c r="AM51">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AN51">
-        <v>42.1</v>
+        <v>52.6</v>
       </c>
       <c r="AO51">
-        <v>-0</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="52" spans="1:41">
@@ -6454,34 +6469,34 @@
         <v>35</v>
       </c>
       <c r="C52">
-        <v>2811</v>
+        <v>3287</v>
       </c>
       <c r="D52">
-        <v>937</v>
+        <v>1095.7</v>
       </c>
       <c r="E52">
-        <v>961.4</v>
+        <v>1123.5</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>445</v>
+        <v>521</v>
       </c>
       <c r="H52">
-        <v>890</v>
+        <v>1042</v>
       </c>
       <c r="I52">
-        <v>1405.5</v>
+        <v>1643.5</v>
       </c>
       <c r="J52">
-        <v>1921</v>
+        <v>2245</v>
       </c>
       <c r="K52">
         <v>3</v>
       </c>
       <c r="L52">
-        <v>1405.5</v>
+        <v>1643.5</v>
       </c>
       <c r="M52">
         <v>2</v>
@@ -6490,37 +6505,37 @@
         <v>66.7</v>
       </c>
       <c r="O52">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="P52">
-        <v>870</v>
+        <v>925</v>
       </c>
       <c r="Q52">
-        <v>290</v>
+        <v>308.3</v>
       </c>
       <c r="R52">
-        <v>412.3</v>
+        <v>441.4</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
       <c r="T52">
-        <v>54</v>
+        <v>55.5</v>
       </c>
       <c r="U52">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="V52">
-        <v>435</v>
+        <v>462.5</v>
       </c>
       <c r="W52">
-        <v>762</v>
+        <v>814</v>
       </c>
       <c r="X52">
         <v>3</v>
       </c>
       <c r="Y52">
-        <v>435</v>
+        <v>462.5</v>
       </c>
       <c r="Z52">
         <v>2</v>
@@ -6532,13 +6547,13 @@
         <v>0.3</v>
       </c>
       <c r="AC52">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="AD52">
-        <v>116.7</v>
+        <v>139.7</v>
       </c>
       <c r="AE52">
-        <v>202.1</v>
+        <v>241.9</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -6550,16 +6565,16 @@
         <v>0</v>
       </c>
       <c r="AI52">
-        <v>175</v>
+        <v>209.5</v>
       </c>
       <c r="AJ52">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="AK52">
         <v>3</v>
       </c>
       <c r="AL52">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="AM52">
         <v>1</v>
@@ -6568,7 +6583,7 @@
         <v>33.3</v>
       </c>
       <c r="AO52">
-        <v>-0.3</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="53" spans="1:41">
@@ -6579,31 +6594,31 @@
         <v>33</v>
       </c>
       <c r="C53">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="D53">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="F53">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="G53">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="H53">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="I53">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="J53">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="L53">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="M53">
         <v>1</v>
@@ -6615,31 +6630,31 @@
         <v>1.4</v>
       </c>
       <c r="P53">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="Q53">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="S53">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="T53">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="U53">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="V53">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="W53">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="X53">
         <v>1</v>
       </c>
       <c r="Y53">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="Z53">
         <v>1</v>
@@ -6648,34 +6663,34 @@
         <v>100</v>
       </c>
       <c r="AB53">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AC53">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AD53">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AF53">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AG53">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH53">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI53">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AJ53">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AK53">
         <v>1</v>
       </c>
       <c r="AL53">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AM53">
         <v>1</v>
@@ -6684,7 +6699,7 @@
         <v>100</v>
       </c>
       <c r="AO53">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="54" spans="1:41">
@@ -6693,31 +6708,31 @@
         <v>34</v>
       </c>
       <c r="C54">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D54">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F54">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G54">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H54">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I54">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J54">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M54">
         <v>1</v>
@@ -6729,31 +6744,31 @@
         <v>1.4</v>
       </c>
       <c r="P54">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q54">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S54">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T54">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U54">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V54">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W54">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X54">
         <v>1</v>
       </c>
       <c r="Y54">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z54">
         <v>1</v>
@@ -6762,40 +6777,43 @@
         <v>100</v>
       </c>
       <c r="AB54">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AC54">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AF54">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AG54">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AH54">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AI54">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AJ54">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AK54">
         <v>1</v>
       </c>
+      <c r="AL54">
+        <v>54</v>
+      </c>
       <c r="AM54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN54">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO54">
-        <v>-1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="55" spans="1:41">
@@ -6804,13 +6822,13 @@
         <v>31</v>
       </c>
       <c r="C55">
-        <v>18552</v>
+        <v>23503</v>
       </c>
       <c r="D55">
-        <v>378.6</v>
+        <v>479.7</v>
       </c>
       <c r="E55">
-        <v>1058.1</v>
+        <v>1373.5</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -6822,16 +6840,16 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J55">
-        <v>4946</v>
+        <v>6144</v>
       </c>
       <c r="K55">
         <v>49</v>
       </c>
       <c r="L55">
-        <v>1030.7</v>
+        <v>1305.7</v>
       </c>
       <c r="M55">
         <v>18</v>
@@ -6843,13 +6861,13 @@
         <v>-0.6</v>
       </c>
       <c r="P55">
-        <v>2441</v>
+        <v>3438</v>
       </c>
       <c r="Q55">
-        <v>49.8</v>
+        <v>70.2</v>
       </c>
       <c r="R55">
-        <v>135.2</v>
+        <v>206.1</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -6864,31 +6882,31 @@
         <v>7</v>
       </c>
       <c r="W55">
-        <v>648</v>
+        <v>1010</v>
       </c>
       <c r="X55">
         <v>49</v>
       </c>
       <c r="Y55">
-        <v>152.6</v>
+        <v>202.2</v>
       </c>
       <c r="Z55">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA55">
-        <v>32.7</v>
+        <v>34.7</v>
       </c>
       <c r="AB55">
         <v>-0.7</v>
       </c>
       <c r="AC55">
-        <v>7018</v>
+        <v>14682</v>
       </c>
       <c r="AD55">
-        <v>143.2</v>
+        <v>299.6</v>
       </c>
       <c r="AE55">
-        <v>361.6</v>
+        <v>614.1</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -6897,28 +6915,28 @@
         <v>0</v>
       </c>
       <c r="AH55">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI55">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="AJ55">
-        <v>1735</v>
+        <v>2668</v>
       </c>
       <c r="AK55">
         <v>49</v>
       </c>
       <c r="AL55">
-        <v>584.8</v>
+        <v>564.7</v>
       </c>
       <c r="AM55">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AN55">
-        <v>24.5</v>
+        <v>53.1</v>
       </c>
       <c r="AO55">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="56" spans="1:41">
@@ -6927,13 +6945,13 @@
         <v>35</v>
       </c>
       <c r="C56">
-        <v>1557</v>
+        <v>1836</v>
       </c>
       <c r="D56">
-        <v>389.2</v>
+        <v>459</v>
       </c>
       <c r="E56">
-        <v>504.8</v>
+        <v>621.7</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -6942,19 +6960,19 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>248.5</v>
+        <v>260</v>
       </c>
       <c r="I56">
-        <v>637.8</v>
+        <v>719</v>
       </c>
       <c r="J56">
-        <v>1060</v>
+        <v>1316</v>
       </c>
       <c r="K56">
         <v>4</v>
       </c>
       <c r="L56">
-        <v>778.5</v>
+        <v>918</v>
       </c>
       <c r="M56">
         <v>2</v>
@@ -6966,13 +6984,13 @@
         <v>-0.2</v>
       </c>
       <c r="P56">
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="Q56">
-        <v>84.5</v>
+        <v>99.2</v>
       </c>
       <c r="R56">
-        <v>144.8</v>
+        <v>173.5</v>
       </c>
       <c r="S56">
         <v>0</v>
@@ -6981,19 +6999,19 @@
         <v>0</v>
       </c>
       <c r="U56">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="V56">
-        <v>103.5</v>
+        <v>118.8</v>
       </c>
       <c r="W56">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="X56">
         <v>4</v>
       </c>
       <c r="Y56">
-        <v>169</v>
+        <v>198.5</v>
       </c>
       <c r="Z56">
         <v>2</v>
@@ -7005,13 +7023,13 @@
         <v>-0.2</v>
       </c>
       <c r="AC56">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="AD56">
-        <v>0</v>
+        <v>54.8</v>
       </c>
       <c r="AE56">
-        <v>0</v>
+        <v>109.5</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -7023,22 +7041,25 @@
         <v>0</v>
       </c>
       <c r="AI56">
-        <v>0</v>
+        <v>54.8</v>
       </c>
       <c r="AJ56">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="AK56">
         <v>4</v>
       </c>
+      <c r="AL56">
+        <v>219</v>
+      </c>
       <c r="AM56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN56">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO56">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
     </row>
   </sheetData>
